--- a/holdout_predictions.xlsx
+++ b/holdout_predictions.xlsx
@@ -630,7 +630,7 @@
         <v>0.0025</v>
       </c>
       <c r="X2" t="n">
-        <v>0.01064286984392337</v>
+        <v>0.01021306237746542</v>
       </c>
     </row>
     <row r="3">
@@ -704,7 +704,7 @@
         <v>0.0134</v>
       </c>
       <c r="X3" t="n">
-        <v>0.0117722051617651</v>
+        <v>0.01086150596148316</v>
       </c>
     </row>
     <row r="4">
@@ -778,7 +778,7 @@
         <v>0.0192</v>
       </c>
       <c r="X4" t="n">
-        <v>0.01576512798200042</v>
+        <v>0.01415821077821623</v>
       </c>
     </row>
     <row r="5">
@@ -852,7 +852,7 @@
         <v>0.0202</v>
       </c>
       <c r="X5" t="n">
-        <v>0.01311522838600818</v>
+        <v>0.01135795189214398</v>
       </c>
     </row>
     <row r="6">
@@ -926,7 +926,7 @@
         <v>-0.0132</v>
       </c>
       <c r="X6" t="n">
-        <v>0.01872400818692095</v>
+        <v>0.01579628577204467</v>
       </c>
     </row>
     <row r="7">
@@ -1000,7 +1000,7 @@
         <v>0.0243</v>
       </c>
       <c r="X7" t="n">
-        <v>0.01155989902441163</v>
+        <v>0.01326245528124058</v>
       </c>
     </row>
     <row r="8">
@@ -1074,7 +1074,7 @@
         <v>-0.0179</v>
       </c>
       <c r="X8" t="n">
-        <v>0.002067191740687552</v>
+        <v>0.005844321957081403</v>
       </c>
     </row>
     <row r="9">
@@ -1148,7 +1148,7 @@
         <v>0.0187</v>
       </c>
       <c r="X9" t="n">
-        <v>0.004025615620565843</v>
+        <v>0.006628857878947183</v>
       </c>
     </row>
     <row r="10">
@@ -1222,7 +1222,7 @@
         <v>-0.0025</v>
       </c>
       <c r="X10" t="n">
-        <v>0.003811881790572307</v>
+        <v>0.004699828782768327</v>
       </c>
     </row>
     <row r="11">
@@ -1296,7 +1296,7 @@
         <v>0.0051</v>
       </c>
       <c r="X11" t="n">
-        <v>0.009972700744723112</v>
+        <v>0.01328428481428818</v>
       </c>
     </row>
     <row r="12">
@@ -1370,7 +1370,7 @@
         <v>-0.0128</v>
       </c>
       <c r="X12" t="n">
-        <v>0.001160691888394052</v>
+        <v>0.002181343273724291</v>
       </c>
     </row>
     <row r="13">
@@ -1444,7 +1444,7 @@
         <v>0.0029</v>
       </c>
       <c r="X13" t="n">
-        <v>0.0009081339987240145</v>
+        <v>0.002915151309028964</v>
       </c>
     </row>
     <row r="14">
@@ -1518,7 +1518,7 @@
         <v>-0.0117</v>
       </c>
       <c r="X14" t="n">
-        <v>-0.003784979632960411</v>
+        <v>-0.001931366926753298</v>
       </c>
     </row>
     <row r="15">
@@ -1592,7 +1592,7 @@
         <v>0.018</v>
       </c>
       <c r="X15" t="n">
-        <v>0.001559965713017142</v>
+        <v>0.001226261780028789</v>
       </c>
     </row>
     <row r="16">
@@ -1666,7 +1666,7 @@
         <v>0.003</v>
       </c>
       <c r="X16" t="n">
-        <v>0.01046471775208919</v>
+        <v>0.01077264310109769</v>
       </c>
     </row>
     <row r="17">
@@ -1740,7 +1740,7 @@
         <v>-0.0024</v>
       </c>
       <c r="X17" t="n">
-        <v>0.004888656286581003</v>
+        <v>0.005802941500156011</v>
       </c>
     </row>
     <row r="18">
@@ -1814,7 +1814,7 @@
         <v>-0.006</v>
       </c>
       <c r="X18" t="n">
-        <v>-0.0007346517441935801</v>
+        <v>0.00165011584941012</v>
       </c>
     </row>
     <row r="19">
@@ -1888,7 +1888,7 @@
         <v>-0.0007</v>
       </c>
       <c r="X19" t="n">
-        <v>-0.002873861400089419</v>
+        <v>0.001129255777688174</v>
       </c>
     </row>
     <row r="20">
@@ -1962,7 +1962,7 @@
         <v>-0.0151</v>
       </c>
       <c r="X20" t="n">
-        <v>-0.002540573484495381</v>
+        <v>0.0001443867667208521</v>
       </c>
     </row>
     <row r="21">
@@ -2036,7 +2036,7 @@
         <v>0.008200000000000001</v>
       </c>
       <c r="X21" t="n">
-        <v>0.004755459540244759</v>
+        <v>0.003880900478149303</v>
       </c>
     </row>
     <row r="22">
@@ -2110,7 +2110,7 @@
         <v>-0.0354</v>
       </c>
       <c r="X22" t="n">
-        <v>-0.006273161252868222</v>
+        <v>-0.003342368635806828</v>
       </c>
     </row>
     <row r="23">
@@ -2184,7 +2184,7 @@
         <v>0.002</v>
       </c>
       <c r="X23" t="n">
-        <v>-0.0112341885804426</v>
+        <v>-0.01274857879044057</v>
       </c>
     </row>
     <row r="24">
@@ -2258,7 +2258,7 @@
         <v>0.0128</v>
       </c>
       <c r="X24" t="n">
-        <v>-0.003270354319573466</v>
+        <v>-0.001475283094895338</v>
       </c>
     </row>
     <row r="25">
@@ -2332,7 +2332,7 @@
         <v>0.0036</v>
       </c>
       <c r="X25" t="n">
-        <v>-0.0007293188365126446</v>
+        <v>-0.001706597055721259</v>
       </c>
     </row>
     <row r="26">
@@ -2406,7 +2406,7 @@
         <v>-0.0258</v>
       </c>
       <c r="X26" t="n">
-        <v>0.00230458557814062</v>
+        <v>0.00519436017291575</v>
       </c>
     </row>
     <row r="27">
@@ -2480,7 +2480,7 @@
         <v>-0.0074</v>
       </c>
       <c r="X27" t="n">
-        <v>-0.005144799137747355</v>
+        <v>-0.004131683957349839</v>
       </c>
     </row>
     <row r="28">
@@ -2554,7 +2554,7 @@
         <v>-0.0249</v>
       </c>
       <c r="X28" t="n">
-        <v>-0.01765787714543369</v>
+        <v>-0.01531079064878477</v>
       </c>
     </row>
     <row r="29">
@@ -2628,7 +2628,7 @@
         <v>0.0179</v>
       </c>
       <c r="X29" t="n">
-        <v>-0.01003892711490866</v>
+        <v>-0.01119276373106884</v>
       </c>
     </row>
     <row r="30">
@@ -2702,7 +2702,7 @@
         <v>0.0198</v>
       </c>
       <c r="X30" t="n">
-        <v>0.003422537806954485</v>
+        <v>0.002779495563548485</v>
       </c>
     </row>
     <row r="31">
@@ -2776,7 +2776,7 @@
         <v>-0.009299999999999999</v>
       </c>
       <c r="X31" t="n">
-        <v>0.008227552641061359</v>
+        <v>0.008753849481273671</v>
       </c>
     </row>
     <row r="32">
@@ -2850,7 +2850,7 @@
         <v>-0.0112</v>
       </c>
       <c r="X32" t="n">
-        <v>0.002772283289329717</v>
+        <v>0.002812664341079434</v>
       </c>
     </row>
     <row r="33">
@@ -2924,7 +2924,7 @@
         <v>-0.0013</v>
       </c>
       <c r="X33" t="n">
-        <v>-0.00402848427276505</v>
+        <v>-0.002436361728167893</v>
       </c>
     </row>
     <row r="34">
@@ -2998,7 +2998,7 @@
         <v>0.021</v>
       </c>
       <c r="X34" t="n">
-        <v>-1.205734052239479e-05</v>
+        <v>0.003074825523340193</v>
       </c>
     </row>
     <row r="35">
@@ -3072,7 +3072,7 @@
         <v>-0.0148</v>
       </c>
       <c r="X35" t="n">
-        <v>-0.003940580688144475</v>
+        <v>-0.002137161904232043</v>
       </c>
     </row>
     <row r="36">
@@ -3146,7 +3146,7 @@
         <v>0.0133</v>
       </c>
       <c r="X36" t="n">
-        <v>0.01291496581807548</v>
+        <v>0.009921282592039752</v>
       </c>
     </row>
     <row r="37">
@@ -3220,7 +3220,7 @@
         <v>-0.0016</v>
       </c>
       <c r="X37" t="n">
-        <v>0.002156894782136876</v>
+        <v>0.001208883121752993</v>
       </c>
     </row>
     <row r="38">
@@ -3294,7 +3294,7 @@
         <v>-0.0004</v>
       </c>
       <c r="X38" t="n">
-        <v>-0.0009375037260812797</v>
+        <v>0.002977383953929139</v>
       </c>
     </row>
     <row r="39">
@@ -3368,7 +3368,7 @@
         <v>-0.0124</v>
       </c>
       <c r="X39" t="n">
-        <v>0.003039576514486912</v>
+        <v>0.002870019305330766</v>
       </c>
     </row>
     <row r="40">
@@ -3442,7 +3442,7 @@
         <v>-0.0053</v>
       </c>
       <c r="X40" t="n">
-        <v>0.002034257362288555</v>
+        <v>0.001992767825267267</v>
       </c>
     </row>
     <row r="41">
@@ -3516,7 +3516,7 @@
         <v>-0.0026</v>
       </c>
       <c r="X41" t="n">
-        <v>-0.000900894365721997</v>
+        <v>-0.0009227531216943435</v>
       </c>
     </row>
     <row r="42">
@@ -3590,7 +3590,7 @@
         <v>0.0063</v>
       </c>
       <c r="X42" t="n">
-        <v>0.0008530236214379021</v>
+        <v>0.0001232597235581024</v>
       </c>
     </row>
     <row r="43">
@@ -3664,7 +3664,7 @@
         <v>-0.0122</v>
       </c>
       <c r="X43" t="n">
-        <v>-0.001946225243314109</v>
+        <v>-0.0008056866706192276</v>
       </c>
     </row>
     <row r="44">
@@ -3738,7 +3738,7 @@
         <v>0.019</v>
       </c>
       <c r="X44" t="n">
-        <v>0.004500612893630646</v>
+        <v>0.002799852807727172</v>
       </c>
     </row>
     <row r="45">
@@ -3812,7 +3812,7 @@
         <v>0.0001</v>
       </c>
       <c r="X45" t="n">
-        <v>0.01152342837520789</v>
+        <v>0.009007900552006756</v>
       </c>
     </row>
     <row r="46">
@@ -3886,7 +3886,7 @@
         <v>0.0067</v>
       </c>
       <c r="X46" t="n">
-        <v>0.003458924802391819</v>
+        <v>0.001130219361924608</v>
       </c>
     </row>
     <row r="47">
@@ -3960,7 +3960,7 @@
         <v>0.0031</v>
       </c>
       <c r="X47" t="n">
-        <v>0.006228140171867984</v>
+        <v>0.00508127350671343</v>
       </c>
     </row>
     <row r="48">
@@ -4034,7 +4034,7 @@
         <v>-0.008</v>
       </c>
       <c r="X48" t="n">
-        <v>0.004251901978525379</v>
+        <v>0.001948297036712312</v>
       </c>
     </row>
     <row r="49">
@@ -4108,7 +4108,7 @@
         <v>0.0098</v>
       </c>
       <c r="X49" t="n">
-        <v>0.003879867731390215</v>
+        <v>0.003352228913969508</v>
       </c>
     </row>
     <row r="50">
@@ -4182,7 +4182,7 @@
         <v>0.0246</v>
       </c>
       <c r="X50" t="n">
-        <v>0.01392700444545316</v>
+        <v>0.01070976575306857</v>
       </c>
     </row>
     <row r="51">
@@ -4256,7 +4256,7 @@
         <v>-0.0064</v>
       </c>
       <c r="X51" t="n">
-        <v>0.006060542880750661</v>
+        <v>0.003689865120333861</v>
       </c>
     </row>
     <row r="52">
@@ -4330,7 +4330,7 @@
         <v>0.0039</v>
       </c>
       <c r="X52" t="n">
-        <v>0.0115431210407338</v>
+        <v>0.008437362583931497</v>
       </c>
     </row>
     <row r="53">
@@ -4404,7 +4404,7 @@
         <v>0.0126</v>
       </c>
       <c r="X53" t="n">
-        <v>0.009075660479165318</v>
+        <v>0.00639701330069297</v>
       </c>
     </row>
     <row r="54">
@@ -4478,7 +4478,7 @@
         <v>-0.0101</v>
       </c>
       <c r="X54" t="n">
-        <v>-0.001284774760218773</v>
+        <v>-0.0009427953668937136</v>
       </c>
     </row>
     <row r="55">
@@ -4552,7 +4552,7 @@
         <v>0.0141</v>
       </c>
       <c r="X55" t="n">
-        <v>0.01139684122126706</v>
+        <v>0.01069211881225447</v>
       </c>
     </row>
     <row r="56">
@@ -4626,7 +4626,7 @@
         <v>0.0127</v>
       </c>
       <c r="X56" t="n">
-        <v>0.007260565648107432</v>
+        <v>0.005867479420277457</v>
       </c>
     </row>
     <row r="57">
@@ -4700,7 +4700,7 @@
         <v>-0.0021</v>
       </c>
       <c r="X57" t="n">
-        <v>0.003734308394005322</v>
+        <v>0.003083119186641515</v>
       </c>
     </row>
     <row r="58">
@@ -4774,7 +4774,7 @@
         <v>-0.0022</v>
       </c>
       <c r="X58" t="n">
-        <v>0.006259262229907273</v>
+        <v>0.005256390872513264</v>
       </c>
     </row>
     <row r="59">
@@ -4848,7 +4848,7 @@
         <v>-0.0022</v>
       </c>
       <c r="X59" t="n">
-        <v>0.0008459145546330416</v>
+        <v>-0.0008004057625352231</v>
       </c>
     </row>
     <row r="60">
@@ -4922,7 +4922,7 @@
         <v>0.0125</v>
       </c>
       <c r="X60" t="n">
-        <v>0.008171230322158867</v>
+        <v>0.007191500114812371</v>
       </c>
     </row>
     <row r="61">
@@ -4996,7 +4996,7 @@
         <v>0.0115</v>
       </c>
       <c r="X61" t="n">
-        <v>0.005961154092832638</v>
+        <v>0.004514822725074572</v>
       </c>
     </row>
     <row r="62">
@@ -5070,7 +5070,7 @@
         <v>0.0046</v>
       </c>
       <c r="X62" t="n">
-        <v>0.008127258272231675</v>
+        <v>0.006350424434081164</v>
       </c>
     </row>
     <row r="63">
@@ -5144,7 +5144,7 @@
         <v>0.0023</v>
       </c>
       <c r="X63" t="n">
-        <v>0.01102019001812166</v>
+        <v>0.01078643101037372</v>
       </c>
     </row>
     <row r="64">
@@ -5218,7 +5218,7 @@
         <v>0.0196</v>
       </c>
       <c r="X64" t="n">
-        <v>0.01711809108215051</v>
+        <v>0.01536617543582702</v>
       </c>
     </row>
     <row r="65">
@@ -5292,7 +5292,7 @@
         <v>0.0147</v>
       </c>
       <c r="X65" t="n">
-        <v>0.01136562980584512</v>
+        <v>0.01107410111121132</v>
       </c>
     </row>
     <row r="66">
@@ -5366,7 +5366,7 @@
         <v>0.018</v>
       </c>
       <c r="X66" t="n">
-        <v>0.01597793795186576</v>
+        <v>0.01276202820261201</v>
       </c>
     </row>
     <row r="67">
@@ -5440,7 +5440,7 @@
         <v>-0.0092</v>
       </c>
       <c r="X67" t="n">
-        <v>0.01146905634597166</v>
+        <v>0.01326166908074179</v>
       </c>
     </row>
     <row r="68">
@@ -5514,7 +5514,7 @@
         <v>0.0131</v>
       </c>
       <c r="X68" t="n">
-        <v>0.008913196788902044</v>
+        <v>0.008174724350319214</v>
       </c>
     </row>
     <row r="69">
@@ -5588,7 +5588,7 @@
         <v>-0.0042</v>
       </c>
       <c r="X69" t="n">
-        <v>0.01129418198373258</v>
+        <v>0.01216610018991281</v>
       </c>
     </row>
     <row r="70">
@@ -5662,7 +5662,7 @@
         <v>0.007900000000000001</v>
       </c>
       <c r="X70" t="n">
-        <v>0.0008325453612864081</v>
+        <v>0.004813970220410945</v>
       </c>
     </row>
     <row r="71">
@@ -5736,7 +5736,7 @@
         <v>0.0241</v>
       </c>
       <c r="X71" t="n">
-        <v>0.009742157978244615</v>
+        <v>0.009147380365709053</v>
       </c>
     </row>
     <row r="72">
@@ -5810,7 +5810,7 @@
         <v>-0.0045</v>
       </c>
       <c r="X72" t="n">
-        <v>0.003946814340754653</v>
+        <v>0.002952832516188357</v>
       </c>
     </row>
     <row r="73">
@@ -5884,7 +5884,7 @@
         <v>-0.0141</v>
       </c>
       <c r="X73" t="n">
-        <v>0.001623753544700914</v>
+        <v>0.000577394086307926</v>
       </c>
     </row>
     <row r="74">
@@ -5958,7 +5958,7 @@
         <v>-0.0269</v>
       </c>
       <c r="X74" t="n">
-        <v>0.005000450452763558</v>
+        <v>0.004939680746595898</v>
       </c>
     </row>
     <row r="75">
@@ -6032,7 +6032,7 @@
         <v>0.026</v>
       </c>
       <c r="X75" t="n">
-        <v>-0.001535899775058524</v>
+        <v>-0.003647510467203146</v>
       </c>
     </row>
     <row r="76">
@@ -6106,7 +6106,7 @@
         <v>-0.0051</v>
       </c>
       <c r="X76" t="n">
-        <v>0.003574747029755958</v>
+        <v>0.003719342894517009</v>
       </c>
     </row>
     <row r="77">
@@ -6180,7 +6180,7 @@
         <v>0.009599999999999999</v>
       </c>
       <c r="X77" t="n">
-        <v>0.001930025110050716</v>
+        <v>0.001088842893844249</v>
       </c>
     </row>
     <row r="78">
@@ -6254,7 +6254,7 @@
         <v>0.012</v>
       </c>
       <c r="X78" t="n">
-        <v>0.01233248424393067</v>
+        <v>0.01206135205409034</v>
       </c>
     </row>
     <row r="79">
@@ -6328,7 +6328,7 @@
         <v>0.0029</v>
       </c>
       <c r="X79" t="n">
-        <v>0.0105653341956946</v>
+        <v>0.01306330170455134</v>
       </c>
     </row>
     <row r="80">
@@ -6402,7 +6402,7 @@
         <v>-0.0149</v>
       </c>
       <c r="X80" t="n">
-        <v>0.003662701922085849</v>
+        <v>0.002399630822577633</v>
       </c>
     </row>
     <row r="81">
@@ -6476,7 +6476,7 @@
         <v>-0.0122</v>
       </c>
       <c r="X81" t="n">
-        <v>0.006974195987620857</v>
+        <v>0.004046905893396552</v>
       </c>
     </row>
     <row r="82">
@@ -6550,7 +6550,7 @@
         <v>0.0046</v>
       </c>
       <c r="X82" t="n">
-        <v>-0.0007795097095684585</v>
+        <v>-0.0008040603347874595</v>
       </c>
     </row>
     <row r="83">
@@ -6624,7 +6624,7 @@
         <v>0.0015</v>
       </c>
       <c r="X83" t="n">
-        <v>0.001436607550417419</v>
+        <v>0.001346039197624573</v>
       </c>
     </row>
     <row r="84">
@@ -6698,7 +6698,7 @@
         <v>-0.0023</v>
       </c>
       <c r="X84" t="n">
-        <v>0.006146016050890922</v>
+        <v>0.005306543851521569</v>
       </c>
     </row>
     <row r="85">
@@ -6772,7 +6772,7 @@
         <v>0.0126</v>
       </c>
       <c r="X85" t="n">
-        <v>0.008736656040231649</v>
+        <v>0.007719007854825211</v>
       </c>
     </row>
     <row r="86">
@@ -6846,7 +6846,7 @@
         <v>-0.0028</v>
       </c>
       <c r="X86" t="n">
-        <v>0.009052464378951753</v>
+        <v>0.008344718494838796</v>
       </c>
     </row>
     <row r="87">
@@ -6920,7 +6920,7 @@
         <v>0.0007</v>
       </c>
       <c r="X87" t="n">
-        <v>0.007228092632805739</v>
+        <v>0.008551448644591002</v>
       </c>
     </row>
     <row r="88">
@@ -6994,7 +6994,7 @@
         <v>-0.0063</v>
       </c>
       <c r="X88" t="n">
-        <v>0.006331231114625338</v>
+        <v>0.007467937588245392</v>
       </c>
     </row>
     <row r="89">
@@ -7068,7 +7068,7 @@
         <v>-0.0003</v>
       </c>
       <c r="X89" t="n">
-        <v>0.008530315630641239</v>
+        <v>0.006799131438332352</v>
       </c>
     </row>
     <row r="90">
@@ -7142,7 +7142,7 @@
         <v>-0.0034</v>
       </c>
       <c r="X90" t="n">
-        <v>0.00734213322068921</v>
+        <v>0.008230878172660973</v>
       </c>
     </row>
     <row r="91">
@@ -7216,7 +7216,7 @@
         <v>0.0018</v>
       </c>
       <c r="X91" t="n">
-        <v>0.004185295543089032</v>
+        <v>0.006268913714170959</v>
       </c>
     </row>
     <row r="92">
@@ -7290,7 +7290,7 @@
         <v>0.0208</v>
       </c>
       <c r="X92" t="n">
-        <v>0.007906760818091807</v>
+        <v>0.00913756168620625</v>
       </c>
     </row>
     <row r="93">
@@ -7364,7 +7364,7 @@
         <v>0.0014</v>
       </c>
       <c r="X93" t="n">
-        <v>0.009173125561681549</v>
+        <v>0.01154639497117728</v>
       </c>
     </row>
     <row r="94">
@@ -7438,7 +7438,7 @@
         <v>0.0135</v>
       </c>
       <c r="X94" t="n">
-        <v>0.01260206200873123</v>
+        <v>0.01444954410046777</v>
       </c>
     </row>
     <row r="95">
@@ -7512,7 +7512,7 @@
         <v>-0.0062</v>
       </c>
       <c r="X95" t="n">
-        <v>0.01385348765489879</v>
+        <v>0.01360233010169913</v>
       </c>
     </row>
     <row r="96">
@@ -7586,7 +7586,7 @@
         <v>-0.0255</v>
       </c>
       <c r="X96" t="n">
-        <v>0.009200376852874016</v>
+        <v>0.008590452505248015</v>
       </c>
     </row>
     <row r="97">
@@ -7660,7 +7660,7 @@
         <v>0.0023</v>
       </c>
       <c r="X97" t="n">
-        <v>0.007458149774968265</v>
+        <v>0.007742015464248368</v>
       </c>
     </row>
     <row r="98">
@@ -7734,7 +7734,7 @@
         <v>0.0102</v>
       </c>
       <c r="X98" t="n">
-        <v>0.007540162653756141</v>
+        <v>0.007954605742026144</v>
       </c>
     </row>
     <row r="99">
@@ -7808,7 +7808,7 @@
         <v>0.0103</v>
       </c>
       <c r="X99" t="n">
-        <v>0.008217059375253601</v>
+        <v>0.008650419957285571</v>
       </c>
     </row>
     <row r="100">
@@ -7882,7 +7882,7 @@
         <v>-0.0005999999999999999</v>
       </c>
       <c r="X100" t="n">
-        <v>0.01013985450651123</v>
+        <v>0.01038851415322551</v>
       </c>
     </row>
     <row r="101">
@@ -7956,7 +7956,7 @@
         <v>-0.008399999999999999</v>
       </c>
       <c r="X101" t="n">
-        <v>0.008382450452232178</v>
+        <v>0.009579758267444624</v>
       </c>
     </row>
     <row r="102">
@@ -8030,7 +8030,7 @@
         <v>-0.0055</v>
       </c>
       <c r="X102" t="n">
-        <v>0.008009493028936519</v>
+        <v>0.008525450196717174</v>
       </c>
     </row>
     <row r="103">
@@ -8104,7 +8104,7 @@
         <v>0.0072</v>
       </c>
       <c r="X103" t="n">
-        <v>0.005216300797556785</v>
+        <v>0.009277773352012176</v>
       </c>
     </row>
     <row r="104">
@@ -8178,7 +8178,7 @@
         <v>0.0304</v>
       </c>
       <c r="X104" t="n">
-        <v>0.01014980581631254</v>
+        <v>0.01319813190597672</v>
       </c>
     </row>
     <row r="105">
@@ -8252,7 +8252,7 @@
         <v>-0.008399999999999999</v>
       </c>
       <c r="X105" t="n">
-        <v>0.01087110375848475</v>
+        <v>0.01481119114217736</v>
       </c>
     </row>
     <row r="106">
@@ -8326,7 +8326,7 @@
         <v>0.0045</v>
       </c>
       <c r="X106" t="n">
-        <v>0.01270086438119537</v>
+        <v>0.01467556172672566</v>
       </c>
     </row>
     <row r="107">
@@ -8400,7 +8400,7 @@
         <v>0.0075</v>
       </c>
       <c r="X107" t="n">
-        <v>0.01166313202743802</v>
+        <v>0.014587256691609</v>
       </c>
     </row>
     <row r="108">
@@ -8474,7 +8474,7 @@
         <v>0.0042</v>
       </c>
       <c r="X108" t="n">
-        <v>0.00652619427352526</v>
+        <v>0.01197619922050642</v>
       </c>
     </row>
     <row r="109">
@@ -8548,7 +8548,7 @@
         <v>0.0155</v>
       </c>
       <c r="X109" t="n">
-        <v>0.01009737633549924</v>
+        <v>0.01660935736231433</v>
       </c>
     </row>
     <row r="110">
@@ -8622,7 +8622,7 @@
         <v>-0.0101</v>
       </c>
       <c r="X110" t="n">
-        <v>0.009720535071779297</v>
+        <v>0.01332394170251833</v>
       </c>
     </row>
     <row r="111">
@@ -8696,7 +8696,7 @@
         <v>-0.0067</v>
       </c>
       <c r="X111" t="n">
-        <v>0.01096284145417705</v>
+        <v>0.01420438610232432</v>
       </c>
     </row>
     <row r="112">
@@ -8770,7 +8770,7 @@
         <v>-0.0331</v>
       </c>
       <c r="X112" t="n">
-        <v>-0.003356267176244808</v>
+        <v>0.001241279054208175</v>
       </c>
     </row>
     <row r="113">
@@ -8844,7 +8844,7 @@
         <v>0.0039</v>
       </c>
       <c r="X113" t="n">
-        <v>0.001404171970311251</v>
+        <v>0.002498785093664506</v>
       </c>
     </row>
     <row r="114">
@@ -8918,7 +8918,7 @@
         <v>-0.009599999999999999</v>
       </c>
       <c r="X114" t="n">
-        <v>-0.003118774557180866</v>
+        <v>-0.0007492096194955716</v>
       </c>
     </row>
     <row r="115">
@@ -8992,7 +8992,7 @@
         <v>0.0061</v>
       </c>
       <c r="X115" t="n">
-        <v>-0.001698256725013033</v>
+        <v>0.0009071515108257755</v>
       </c>
     </row>
     <row r="116">
@@ -9066,7 +9066,7 @@
         <v>-0.0016</v>
       </c>
       <c r="X116" t="n">
-        <v>0.003389090008645466</v>
+        <v>0.00842700112173473</v>
       </c>
     </row>
     <row r="117">
@@ -9140,7 +9140,7 @@
         <v>-0.0183</v>
       </c>
       <c r="X117" t="n">
-        <v>0.001667406981868321</v>
+        <v>0.004707097928546342</v>
       </c>
     </row>
     <row r="118">
@@ -9214,7 +9214,7 @@
         <v>-0.0214</v>
       </c>
       <c r="X118" t="n">
-        <v>-0.004702126964495771</v>
+        <v>-0.001020625633598428</v>
       </c>
     </row>
     <row r="119">
@@ -9288,7 +9288,7 @@
         <v>0.0034</v>
       </c>
       <c r="X119" t="n">
-        <v>-0.007873197175004218</v>
+        <v>-0.002772948367021714</v>
       </c>
     </row>
     <row r="120">
@@ -9362,7 +9362,7 @@
         <v>0.0169</v>
       </c>
       <c r="X120" t="n">
-        <v>0.007114437907668896</v>
+        <v>0.009265028477661377</v>
       </c>
     </row>
     <row r="121">
@@ -9436,7 +9436,7 @@
         <v>0.0067</v>
       </c>
       <c r="X121" t="n">
-        <v>0.008140484856553346</v>
+        <v>0.01248606987083693</v>
       </c>
     </row>
     <row r="122">
@@ -9510,7 +9510,7 @@
         <v>0.0005999999999999999</v>
       </c>
       <c r="X122" t="n">
-        <v>0.009397130635366036</v>
+        <v>0.01285579653469595</v>
       </c>
     </row>
     <row r="123">
@@ -9584,7 +9584,7 @@
         <v>-0.0105</v>
       </c>
       <c r="X123" t="n">
-        <v>0.01491922522566136</v>
+        <v>0.01600668110516934</v>
       </c>
     </row>
     <row r="124">
@@ -9658,7 +9658,7 @@
         <v>-0.0238</v>
       </c>
       <c r="X124" t="n">
-        <v>-0.001247610222087853</v>
+        <v>0.005202850483637429</v>
       </c>
     </row>
     <row r="125">
@@ -9732,7 +9732,7 @@
         <v>0.0065</v>
       </c>
       <c r="X125" t="n">
-        <v>0.002216516295430575</v>
+        <v>0.00634342899543267</v>
       </c>
     </row>
     <row r="126">
@@ -9806,7 +9806,7 @@
         <v>-0.009299999999999999</v>
       </c>
       <c r="X126" t="n">
-        <v>-0.001901876833254465</v>
+        <v>0.006667677306376093</v>
       </c>
     </row>
     <row r="127">
@@ -9880,7 +9880,7 @@
         <v>0.0081</v>
       </c>
       <c r="X127" t="n">
-        <v>0.006059259398324413</v>
+        <v>0.008467376453091969</v>
       </c>
     </row>
     <row r="128">
@@ -9954,7 +9954,7 @@
         <v>-0.0246</v>
       </c>
       <c r="X128" t="n">
-        <v>0.006137734698378186</v>
+        <v>0.01026817016026928</v>
       </c>
     </row>
     <row r="129">
@@ -10028,7 +10028,7 @@
         <v>0.0142</v>
       </c>
       <c r="X129" t="n">
-        <v>0.007321386477154964</v>
+        <v>0.009740684488777025</v>
       </c>
     </row>
     <row r="130">
@@ -10102,7 +10102,7 @@
         <v>0.0063</v>
       </c>
       <c r="X130" t="n">
-        <v>0.00813331833141182</v>
+        <v>0.01165223744802108</v>
       </c>
     </row>
     <row r="131">
@@ -10176,7 +10176,7 @@
         <v>0.0091</v>
       </c>
       <c r="X131" t="n">
-        <v>0.008852837134993859</v>
+        <v>0.01181976001017386</v>
       </c>
     </row>
     <row r="132">
@@ -10250,7 +10250,7 @@
         <v>-0.0027</v>
       </c>
       <c r="X132" t="n">
-        <v>0.01092983249935172</v>
+        <v>0.01405245923642401</v>
       </c>
     </row>
     <row r="133">
@@ -10324,7 +10324,7 @@
         <v>-0.0005999999999999999</v>
       </c>
       <c r="X133" t="n">
-        <v>0.01283331672427712</v>
+        <v>0.01657993804444609</v>
       </c>
     </row>
     <row r="134">
@@ -10398,7 +10398,7 @@
         <v>-0.0091</v>
       </c>
       <c r="X134" t="n">
-        <v>0.01033777696183369</v>
+        <v>0.01472642339504321</v>
       </c>
     </row>
     <row r="135">
@@ -10472,7 +10472,7 @@
         <v>-0.0042</v>
       </c>
       <c r="X135" t="n">
-        <v>0.006238323570617056</v>
+        <v>0.01079971440834147</v>
       </c>
     </row>
     <row r="136">
@@ -10546,7 +10546,7 @@
         <v>0.0202</v>
       </c>
       <c r="X136" t="n">
-        <v>0.009477029245497733</v>
+        <v>0.01382187866630572</v>
       </c>
     </row>
     <row r="137">
@@ -10620,7 +10620,7 @@
         <v>0.0075</v>
       </c>
       <c r="X137" t="n">
-        <v>0.01046720795983894</v>
+        <v>0.01429421888676548</v>
       </c>
     </row>
     <row r="138">
@@ -10694,7 +10694,7 @@
         <v>0.0118</v>
       </c>
       <c r="X138" t="n">
-        <v>0.01475101086208376</v>
+        <v>0.0162064762546569</v>
       </c>
     </row>
     <row r="139">
@@ -10768,7 +10768,7 @@
         <v>0.0151</v>
       </c>
       <c r="X139" t="n">
-        <v>0.01570070324798733</v>
+        <v>0.01691216599608591</v>
       </c>
     </row>
     <row r="140">
@@ -10842,7 +10842,7 @@
         <v>0.0034</v>
       </c>
       <c r="X140" t="n">
-        <v>0.01228384656290255</v>
+        <v>0.01509677542554534</v>
       </c>
     </row>
     <row r="141">
@@ -10916,7 +10916,7 @@
         <v>0.0015</v>
       </c>
       <c r="X141" t="n">
-        <v>0.01123106031875454</v>
+        <v>0.01516415261339018</v>
       </c>
     </row>
     <row r="142">
@@ -10990,7 +10990,7 @@
         <v>-0.0053</v>
       </c>
       <c r="X142" t="n">
-        <v>0.009860648334905062</v>
+        <v>0.01415551175687487</v>
       </c>
     </row>
     <row r="143">
@@ -11064,7 +11064,7 @@
         <v>-0.0003</v>
       </c>
       <c r="X143" t="n">
-        <v>0.008147832089875578</v>
+        <v>0.01272551438829917</v>
       </c>
     </row>
     <row r="144">
@@ -11138,7 +11138,7 @@
         <v>0.0046</v>
       </c>
       <c r="X144" t="n">
-        <v>0.00879979784372957</v>
+        <v>0.01321673953465265</v>
       </c>
     </row>
     <row r="145">
@@ -11212,7 +11212,7 @@
         <v>-0.0031</v>
       </c>
       <c r="X145" t="n">
-        <v>0.003946045246163735</v>
+        <v>0.01038142023163109</v>
       </c>
     </row>
     <row r="146">
@@ -11286,7 +11286,7 @@
         <v>0.025</v>
       </c>
       <c r="X146" t="n">
-        <v>0.01055618740914781</v>
+        <v>0.01685778615107373</v>
       </c>
     </row>
     <row r="147">
@@ -11360,7 +11360,7 @@
         <v>-0.0182</v>
       </c>
       <c r="X147" t="n">
-        <v>0.01016669803104226</v>
+        <v>0.01574287900177308</v>
       </c>
     </row>
     <row r="148">
@@ -11434,7 +11434,7 @@
         <v>-0.0056</v>
       </c>
       <c r="X148" t="n">
-        <v>0.008508293189886679</v>
+        <v>0.01247584977354815</v>
       </c>
     </row>
     <row r="149">
@@ -11508,7 +11508,7 @@
         <v>0.0071</v>
       </c>
       <c r="X149" t="n">
-        <v>0.008673277605471093</v>
+        <v>0.01225997451101399</v>
       </c>
     </row>
     <row r="150">
@@ -11582,7 +11582,7 @@
         <v>0.0098</v>
       </c>
       <c r="X150" t="n">
-        <v>0.009364277197708925</v>
+        <v>0.01229555443364255</v>
       </c>
     </row>
     <row r="151">
@@ -11656,7 +11656,7 @@
         <v>-0.0035</v>
       </c>
       <c r="X151" t="n">
-        <v>0.009035909837128325</v>
+        <v>0.01290025463512665</v>
       </c>
     </row>
     <row r="152">
@@ -11730,7 +11730,7 @@
         <v>0.0021</v>
       </c>
       <c r="X152" t="n">
-        <v>0.009975678875198101</v>
+        <v>0.01340791031599549</v>
       </c>
     </row>
     <row r="153">
@@ -11804,7 +11804,7 @@
         <v>-0.0056</v>
       </c>
       <c r="X153" t="n">
-        <v>0.008662497607691099</v>
+        <v>0.01235668221142032</v>
       </c>
     </row>
     <row r="154">
@@ -11878,7 +11878,7 @@
         <v>0.0025</v>
       </c>
       <c r="X154" t="n">
-        <v>0.007966603097925467</v>
+        <v>0.01184206508487685</v>
       </c>
     </row>
     <row r="155">
@@ -11952,7 +11952,7 @@
         <v>-0.0192</v>
       </c>
       <c r="X155" t="n">
-        <v>0.008423796831669734</v>
+        <v>0.01062183967159903</v>
       </c>
     </row>
     <row r="156">
@@ -12026,7 +12026,7 @@
         <v>-0.0003</v>
       </c>
       <c r="X156" t="n">
-        <v>0.007469121653090141</v>
+        <v>0.009469237105660484</v>
       </c>
     </row>
     <row r="157">
@@ -12100,7 +12100,7 @@
         <v>0.0143</v>
       </c>
       <c r="X157" t="n">
-        <v>0.00885785366829716</v>
+        <v>0.01141995610030921</v>
       </c>
     </row>
     <row r="158">
@@ -12174,7 +12174,7 @@
         <v>0.0001</v>
       </c>
       <c r="X158" t="n">
-        <v>0.008607007475600965</v>
+        <v>0.01177775401650849</v>
       </c>
     </row>
     <row r="159">
@@ -12248,7 +12248,7 @@
         <v>0.0067</v>
       </c>
       <c r="X159" t="n">
-        <v>0.01031347394662993</v>
+        <v>0.01293826968222475</v>
       </c>
     </row>
     <row r="160">
@@ -12322,7 +12322,7 @@
         <v>0.0165</v>
       </c>
       <c r="X160" t="n">
-        <v>0.01348300281735071</v>
+        <v>0.01649803177863927</v>
       </c>
     </row>
     <row r="161">
@@ -12396,7 +12396,7 @@
         <v>0.0285</v>
       </c>
       <c r="X161" t="n">
-        <v>0.01456422832240121</v>
+        <v>0.01677255557235717</v>
       </c>
     </row>
     <row r="162">
@@ -12470,7 +12470,7 @@
         <v>0.017</v>
       </c>
       <c r="X162" t="n">
-        <v>0.015854793110391</v>
+        <v>0.0186639047585468</v>
       </c>
     </row>
     <row r="163">
@@ -12544,7 +12544,7 @@
         <v>0.0029</v>
       </c>
       <c r="X163" t="n">
-        <v>0.01626700577272866</v>
+        <v>0.01908337572875306</v>
       </c>
     </row>
     <row r="164">
@@ -12618,7 +12618,7 @@
         <v>0.0024</v>
       </c>
       <c r="X164" t="n">
-        <v>0.01578064350999141</v>
+        <v>0.01762329360035514</v>
       </c>
     </row>
     <row r="165">
@@ -12692,7 +12692,7 @@
         <v>0.0033</v>
       </c>
       <c r="X165" t="n">
-        <v>0.01595073472865836</v>
+        <v>0.01957786259140971</v>
       </c>
     </row>
     <row r="166">
@@ -12766,7 +12766,7 @@
         <v>-0.0317</v>
       </c>
       <c r="X166" t="n">
-        <v>0.003265304403672891</v>
+        <v>0.008532440054863418</v>
       </c>
     </row>
     <row r="167">
@@ -12840,7 +12840,7 @@
         <v>0.0219</v>
       </c>
       <c r="X167" t="n">
-        <v>0.00509261685731402</v>
+        <v>0.009430978279945827</v>
       </c>
     </row>
     <row r="168">
@@ -12914,7 +12914,7 @@
         <v>0.0316</v>
       </c>
       <c r="X168" t="n">
-        <v>0.007249818401766301</v>
+        <v>0.01244070222018049</v>
       </c>
     </row>
     <row r="169">
@@ -12988,7 +12988,7 @@
         <v>-0.0032</v>
       </c>
       <c r="X169" t="n">
-        <v>0.00877283752014792</v>
+        <v>0.01323634342218454</v>
       </c>
     </row>
     <row r="170">
@@ -13062,7 +13062,7 @@
         <v>-0.0061</v>
       </c>
       <c r="X170" t="n">
-        <v>0.01400695642762932</v>
+        <v>0.0175571813183969</v>
       </c>
     </row>
     <row r="171">
@@ -13136,7 +13136,7 @@
         <v>-0.0117</v>
       </c>
       <c r="X171" t="n">
-        <v>0.009301993232899215</v>
+        <v>0.01253551867000167</v>
       </c>
     </row>
     <row r="172">
@@ -13210,7 +13210,7 @@
         <v>0.0215</v>
       </c>
       <c r="X172" t="n">
-        <v>0.008224850556131546</v>
+        <v>0.01205610236141991</v>
       </c>
     </row>
     <row r="173">
@@ -13284,7 +13284,7 @@
         <v>0.0354</v>
       </c>
       <c r="X173" t="n">
-        <v>0.0140792397054626</v>
+        <v>0.01622365102397727</v>
       </c>
     </row>
     <row r="174">
@@ -13358,7 +13358,7 @@
         <v>0.0228</v>
       </c>
       <c r="X174" t="n">
-        <v>0.01514882757037546</v>
+        <v>0.01864833368517572</v>
       </c>
     </row>
     <row r="175">
@@ -13432,7 +13432,7 @@
         <v>-0.003</v>
       </c>
       <c r="X175" t="n">
-        <v>0.01648093615590758</v>
+        <v>0.01743133265032978</v>
       </c>
     </row>
     <row r="176">
@@ -13506,7 +13506,7 @@
         <v>0.028</v>
       </c>
       <c r="X176" t="n">
-        <v>0.01579769931252221</v>
+        <v>0.01783487578547738</v>
       </c>
     </row>
     <row r="177">
@@ -13580,7 +13580,7 @@
         <v>-0.0207</v>
       </c>
       <c r="X177" t="n">
-        <v>0.009423097321457723</v>
+        <v>0.01429314218164876</v>
       </c>
     </row>
     <row r="178">
@@ -13654,7 +13654,7 @@
         <v>-0.008</v>
       </c>
       <c r="X178" t="n">
-        <v>0.004507947857033254</v>
+        <v>0.00957904736816546</v>
       </c>
     </row>
     <row r="179">
@@ -13728,7 +13728,7 @@
         <v>0.0285</v>
       </c>
       <c r="X179" t="n">
-        <v>0.01841030200542921</v>
+        <v>0.02132744991231249</v>
       </c>
     </row>
     <row r="180">
@@ -13802,7 +13802,7 @@
         <v>-0.0393</v>
       </c>
       <c r="X180" t="n">
-        <v>-0.004128258490730976</v>
+        <v>-0.003556736851263631</v>
       </c>
     </row>
     <row r="181">
@@ -13876,7 +13876,7 @@
         <v>-0.0065</v>
       </c>
       <c r="X181" t="n">
-        <v>0.006507732222232531</v>
+        <v>0.01040857910301987</v>
       </c>
     </row>
     <row r="182">
@@ -13950,7 +13950,7 @@
         <v>-0.0081</v>
       </c>
       <c r="X182" t="n">
-        <v>0.005623612243055728</v>
+        <v>0.009567559809345691</v>
       </c>
     </row>
     <row r="183">
@@ -14024,7 +14024,7 @@
         <v>0.0191</v>
       </c>
       <c r="X183" t="n">
-        <v>0.007107636968330455</v>
+        <v>0.009352755230591111</v>
       </c>
     </row>
     <row r="184">
@@ -14098,7 +14098,7 @@
         <v>0.0153</v>
       </c>
       <c r="X184" t="n">
-        <v>0.01008281774604947</v>
+        <v>0.01324080385265749</v>
       </c>
     </row>
     <row r="185">
@@ -14172,7 +14172,7 @@
         <v>0.0036</v>
       </c>
       <c r="X185" t="n">
-        <v>0.01145188294751467</v>
+        <v>0.01554098022986126</v>
       </c>
     </row>
     <row r="186">
@@ -14246,7 +14246,7 @@
         <v>0.023</v>
       </c>
       <c r="X186" t="n">
-        <v>0.0141854093877411</v>
+        <v>0.01802845746863555</v>
       </c>
     </row>
     <row r="187">
@@ -14320,7 +14320,7 @@
         <v>-0.0058</v>
       </c>
       <c r="X187" t="n">
-        <v>0.01174201031875454</v>
+        <v>0.01441292323685426</v>
       </c>
     </row>
     <row r="188">
@@ -14394,7 +14394,7 @@
         <v>0.0005</v>
       </c>
       <c r="X188" t="n">
-        <v>0.01031622573666996</v>
+        <v>0.01454245809906468</v>
       </c>
     </row>
     <row r="189">
@@ -14468,7 +14468,7 @@
         <v>-0.0066</v>
       </c>
       <c r="X189" t="n">
-        <v>0.009780401029432754</v>
+        <v>0.01393152446945899</v>
       </c>
     </row>
     <row r="190">
@@ -14542,7 +14542,7 @@
         <v>-0.0035</v>
       </c>
       <c r="X190" t="n">
-        <v>0.003861436554528573</v>
+        <v>0.008467479413421526</v>
       </c>
     </row>
     <row r="191">
@@ -14616,7 +14616,7 @@
         <v>0.025</v>
       </c>
       <c r="X191" t="n">
-        <v>0.01123481494794888</v>
+        <v>0.01608680671792947</v>
       </c>
     </row>
     <row r="192">
@@ -14690,7 +14690,7 @@
         <v>-0.0127</v>
       </c>
       <c r="X192" t="n">
-        <v>0.01231553702587096</v>
+        <v>0.01705622198880626</v>
       </c>
     </row>
     <row r="193">
@@ -14764,7 +14764,7 @@
         <v>-0.0266</v>
       </c>
       <c r="X193" t="n">
-        <v>0.007386242217139586</v>
+        <v>0.01157617480813175</v>
       </c>
     </row>
     <row r="194">
@@ -14838,7 +14838,7 @@
         <v>-0.0167</v>
       </c>
       <c r="X194" t="n">
-        <v>-0.0008709500406026727</v>
+        <v>0.005613667334886042</v>
       </c>
     </row>
     <row r="195">
@@ -14912,7 +14912,7 @@
         <v>0.001</v>
       </c>
       <c r="X195" t="n">
-        <v>-0.007137214200870511</v>
+        <v>-0.004362377091127826</v>
       </c>
     </row>
     <row r="196">
@@ -14986,7 +14986,7 @@
         <v>0.0001</v>
       </c>
       <c r="X196" t="n">
-        <v>0.004645151606959799</v>
+        <v>0.008759007274339847</v>
       </c>
     </row>
     <row r="197">
@@ -15060,7 +15060,7 @@
         <v>0.0168</v>
       </c>
       <c r="X197" t="n">
-        <v>0.00794292006268708</v>
+        <v>0.0117722791583975</v>
       </c>
     </row>
     <row r="198">
@@ -15134,7 +15134,7 @@
         <v>0.0026</v>
       </c>
       <c r="X198" t="n">
-        <v>0.01000807963881357</v>
+        <v>0.01495407477071002</v>
       </c>
     </row>
     <row r="199">
@@ -15208,7 +15208,7 @@
         <v>-0.019</v>
       </c>
       <c r="X199" t="n">
-        <v>0.007592795820262836</v>
+        <v>0.01227744241597325</v>
       </c>
     </row>
     <row r="200">
@@ -15282,7 +15282,7 @@
         <v>0.0051</v>
       </c>
       <c r="X200" t="n">
-        <v>0.008431930487964418</v>
+        <v>0.01132365563195405</v>
       </c>
     </row>
     <row r="201">
@@ -15356,7 +15356,7 @@
         <v>-0.0189</v>
       </c>
       <c r="X201" t="n">
-        <v>0.001140626860845552</v>
+        <v>0.006002773418330035</v>
       </c>
     </row>
     <row r="202">
@@ -15430,7 +15430,7 @@
         <v>-0.021</v>
       </c>
       <c r="X202" t="n">
-        <v>-0.0008636950099307296</v>
+        <v>0.001328712400018282</v>
       </c>
     </row>
     <row r="203">
@@ -15504,7 +15504,7 @@
         <v>-0.0103</v>
       </c>
       <c r="X203" t="n">
-        <v>-0.0009252936141043341</v>
+        <v>0.0007565428467817017</v>
       </c>
     </row>
     <row r="204">
@@ -15578,7 +15578,7 @@
         <v>-0.0128</v>
       </c>
       <c r="X204" t="n">
-        <v>-0.008423467787071891</v>
+        <v>-0.006344581554960349</v>
       </c>
     </row>
     <row r="205">
@@ -15652,7 +15652,7 @@
         <v>-0.0049</v>
       </c>
       <c r="X205" t="n">
-        <v>0.0003804231127962168</v>
+        <v>0.001493898907387762</v>
       </c>
     </row>
     <row r="206">
@@ -15726,7 +15726,7 @@
         <v>-0.0114</v>
       </c>
       <c r="X206" t="n">
-        <v>-0.001577823577604886</v>
+        <v>0.0031629957319276</v>
       </c>
     </row>
     <row r="207">
@@ -15800,7 +15800,7 @@
         <v>-0.0005999999999999999</v>
       </c>
       <c r="X207" t="n">
-        <v>-0.004151491126722435</v>
+        <v>0.002205038235914841</v>
       </c>
     </row>
     <row r="208">
@@ -15874,7 +15874,7 @@
         <v>0.0698</v>
       </c>
       <c r="X208" t="n">
-        <v>0.01610460823660466</v>
+        <v>0.01940590557195122</v>
       </c>
     </row>
     <row r="209">
@@ -15948,7 +15948,7 @@
         <v>0.0261</v>
       </c>
       <c r="X209" t="n">
-        <v>0.01855420300433692</v>
+        <v>0.02038281910963903</v>
       </c>
     </row>
     <row r="210">
@@ -16022,7 +16022,7 @@
         <v>-0.001</v>
       </c>
       <c r="X210" t="n">
-        <v>0.01793415549351441</v>
+        <v>0.0191749835364403</v>
       </c>
     </row>
     <row r="211">
@@ -16096,7 +16096,7 @@
         <v>0.007</v>
       </c>
       <c r="X211" t="n">
-        <v>0.01729094341115233</v>
+        <v>0.02014337027715056</v>
       </c>
     </row>
     <row r="212">
@@ -16170,7 +16170,7 @@
         <v>-0.0167</v>
       </c>
       <c r="X212" t="n">
-        <v>0.01071374556512582</v>
+        <v>0.01443818473842548</v>
       </c>
     </row>
     <row r="213">
@@ -16244,7 +16244,7 @@
         <v>-0.0029</v>
       </c>
       <c r="X213" t="n">
-        <v>0.01181345191433217</v>
+        <v>0.01450273388372463</v>
       </c>
     </row>
     <row r="214">
@@ -16318,7 +16318,7 @@
         <v>-0.0042</v>
       </c>
       <c r="X214" t="n">
-        <v>0.005851173109640126</v>
+        <v>0.009999814633062994</v>
       </c>
     </row>
     <row r="215">
@@ -16392,7 +16392,7 @@
         <v>0.0185</v>
       </c>
       <c r="X215" t="n">
-        <v>0.008705610821927839</v>
+        <v>0.01321039042452299</v>
       </c>
     </row>
     <row r="216">
@@ -16466,7 +16466,7 @@
         <v>0.0083</v>
       </c>
       <c r="X216" t="n">
-        <v>0.01230353002176395</v>
+        <v>0.01664543198239454</v>
       </c>
     </row>
     <row r="217">
@@ -16540,7 +16540,7 @@
         <v>-0.0236</v>
       </c>
       <c r="X217" t="n">
-        <v>0.01390535598746492</v>
+        <v>0.01703779962085988</v>
       </c>
     </row>
     <row r="218">
@@ -16614,7 +16614,7 @@
         <v>-0.0202</v>
       </c>
       <c r="X218" t="n">
-        <v>0.009653516577283593</v>
+        <v>0.01332419317779313</v>
       </c>
     </row>
     <row r="219">
@@ -16688,7 +16688,7 @@
         <v>0.0014</v>
       </c>
       <c r="X219" t="n">
-        <v>0.005939086024503041</v>
+        <v>0.008767154105980429</v>
       </c>
     </row>
     <row r="220">
@@ -16762,7 +16762,7 @@
         <v>0.0232</v>
       </c>
       <c r="X220" t="n">
-        <v>0.01143746269799295</v>
+        <v>0.01195317932497928</v>
       </c>
     </row>
     <row r="221">
@@ -16836,7 +16836,7 @@
         <v>-0.0014</v>
       </c>
       <c r="X221" t="n">
-        <v>0.01209707596470989</v>
+        <v>0.01469418807480359</v>
       </c>
     </row>
     <row r="222">
@@ -16910,7 +16910,7 @@
         <v>-0.0213</v>
       </c>
       <c r="X222" t="n">
-        <v>0.009861294328862086</v>
+        <v>0.01292952633287335</v>
       </c>
     </row>
     <row r="223">
@@ -16984,7 +16984,7 @@
         <v>-0.0094</v>
       </c>
       <c r="X223" t="n">
-        <v>0.004051702920733377</v>
+        <v>0.008843264572972175</v>
       </c>
     </row>
     <row r="224">
@@ -17058,7 +17058,7 @@
         <v>-0.0178</v>
       </c>
       <c r="X224" t="n">
-        <v>-0.0003697951570058764</v>
+        <v>0.004712791258986111</v>
       </c>
     </row>
     <row r="225">
@@ -17132,7 +17132,7 @@
         <v>-0.0259</v>
       </c>
       <c r="X225" t="n">
-        <v>-0.01773902552745242</v>
+        <v>-0.01428565697978063</v>
       </c>
     </row>
     <row r="226">
@@ -17206,7 +17206,7 @@
         <v>0.0167</v>
       </c>
       <c r="X226" t="n">
-        <v>0.005279403980974674</v>
+        <v>0.009339150240145972</v>
       </c>
     </row>
     <row r="227">
@@ -17280,7 +17280,7 @@
         <v>0.013</v>
       </c>
       <c r="X227" t="n">
-        <v>0.008534691616133634</v>
+        <v>0.01258678386088455</v>
       </c>
     </row>
     <row r="228">
@@ -17354,7 +17354,7 @@
         <v>0.0016</v>
       </c>
       <c r="X228" t="n">
-        <v>0.0103525758675848</v>
+        <v>0.01445396654437753</v>
       </c>
     </row>
     <row r="229">
@@ -17428,7 +17428,7 @@
         <v>-0.0116</v>
       </c>
       <c r="X229" t="n">
-        <v>0.00967126926209878</v>
+        <v>0.01122122110090411</v>
       </c>
     </row>
     <row r="230">
@@ -17502,7 +17502,7 @@
         <v>0.0206</v>
       </c>
       <c r="X230" t="n">
-        <v>0.008640167998248252</v>
+        <v>0.01036911541111537</v>
       </c>
     </row>
     <row r="231">
@@ -17576,7 +17576,7 @@
         <v>-0.002</v>
       </c>
       <c r="X231" t="n">
-        <v>0.01015451964602858</v>
+        <v>0.0147155065528168</v>
       </c>
     </row>
     <row r="232">
@@ -17650,7 +17650,7 @@
         <v>-0.0184</v>
       </c>
       <c r="X232" t="n">
-        <v>0.003298958481838939</v>
+        <v>0.009225016285879151</v>
       </c>
     </row>
     <row r="233">
@@ -17724,7 +17724,7 @@
         <v>-0.0237</v>
       </c>
       <c r="X233" t="n">
-        <v>0.002749242256397713</v>
+        <v>0.006068174895415468</v>
       </c>
     </row>
     <row r="234">
@@ -17798,7 +17798,7 @@
         <v>-0.0117</v>
       </c>
       <c r="X234" t="n">
-        <v>0.002670380283838478</v>
+        <v>0.007502061742094314</v>
       </c>
     </row>
     <row r="235">
@@ -17872,7 +17872,7 @@
         <v>0.035</v>
       </c>
       <c r="X235" t="n">
-        <v>0.004601522357587372</v>
+        <v>0.008374842737461195</v>
       </c>
     </row>
     <row r="236">
@@ -17946,7 +17946,7 @@
         <v>-0.0272</v>
       </c>
       <c r="X236" t="n">
-        <v>0.000510436655625936</v>
+        <v>0.005549096073452692</v>
       </c>
     </row>
     <row r="237">
@@ -18020,7 +18020,7 @@
         <v>-0.0239</v>
       </c>
       <c r="X237" t="n">
-        <v>0.001473741050414153</v>
+        <v>0.00591948740434402</v>
       </c>
     </row>
     <row r="238">
@@ -18094,7 +18094,7 @@
         <v>-0.0266</v>
       </c>
       <c r="X238" t="n">
-        <v>0.002138934732739249</v>
+        <v>0.007344390579830801</v>
       </c>
     </row>
     <row r="239">
@@ -18168,7 +18168,7 @@
         <v>0.0297</v>
       </c>
       <c r="X239" t="n">
-        <v>0.003252357942862459</v>
+        <v>0.005585261005769239</v>
       </c>
     </row>
     <row r="240">
@@ -18242,7 +18242,7 @@
         <v>0.029</v>
       </c>
       <c r="X240" t="n">
-        <v>0.007605976969668986</v>
+        <v>0.01163944678829811</v>
       </c>
     </row>
     <row r="241">
@@ -18316,7 +18316,7 @@
         <v>0.0065</v>
       </c>
       <c r="X241" t="n">
-        <v>0.01549311252675895</v>
+        <v>0.01930152590994657</v>
       </c>
     </row>
     <row r="242">
@@ -18390,7 +18390,7 @@
         <v>0.0209</v>
       </c>
       <c r="X242" t="n">
-        <v>0.01777480204141096</v>
+        <v>0.01905926676802639</v>
       </c>
     </row>
     <row r="243">
@@ -18464,7 +18464,7 @@
         <v>0.008500000000000001</v>
       </c>
       <c r="X243" t="n">
-        <v>0.01631584589616732</v>
+        <v>0.01868125010021493</v>
       </c>
     </row>
     <row r="244">
@@ -18538,7 +18538,7 @@
         <v>0.0208</v>
       </c>
       <c r="X244" t="n">
-        <v>0.01774399711716854</v>
+        <v>0.02048341090849634</v>
       </c>
     </row>
     <row r="245">
@@ -18612,7 +18612,7 @@
         <v>0.008200000000000001</v>
       </c>
       <c r="X245" t="n">
-        <v>0.01616495460412603</v>
+        <v>0.01879426452329185</v>
       </c>
     </row>
     <row r="246">
@@ -18686,7 +18686,7 @@
         <v>0.0227</v>
       </c>
       <c r="X246" t="n">
-        <v>0.0177920866776081</v>
+        <v>0.02056371544440161</v>
       </c>
     </row>
     <row r="247">
@@ -18760,7 +18760,7 @@
         <v>0.0037</v>
       </c>
       <c r="X247" t="n">
-        <v>0.01745367680692323</v>
+        <v>0.02098862342377203</v>
       </c>
     </row>
     <row r="248">
@@ -18834,7 +18834,7 @@
         <v>0.005</v>
       </c>
       <c r="X248" t="n">
-        <v>0.01619363745183387</v>
+        <v>0.01890110104027317</v>
       </c>
     </row>
     <row r="249">
@@ -18908,7 +18908,7 @@
         <v>0.0191</v>
       </c>
       <c r="X249" t="n">
-        <v>0.01440624140400915</v>
+        <v>0.0174875142630258</v>
       </c>
     </row>
     <row r="250">
@@ -18982,7 +18982,7 @@
         <v>-0.0066</v>
       </c>
       <c r="X250" t="n">
-        <v>0.01095450205389848</v>
+        <v>0.01621880499476229</v>
       </c>
     </row>
     <row r="251">
@@ -19056,7 +19056,7 @@
         <v>-0.0178</v>
       </c>
       <c r="X251" t="n">
-        <v>0.009640917460224186</v>
+        <v>0.01350174972278753</v>
       </c>
     </row>
     <row r="252">
@@ -19130,7 +19130,7 @@
         <v>-0.0017</v>
       </c>
       <c r="X252" t="n">
-        <v>0.005149257486700972</v>
+        <v>0.01008932710808797</v>
       </c>
     </row>
     <row r="253">
@@ -19204,7 +19204,7 @@
         <v>0.0237</v>
       </c>
       <c r="X253" t="n">
-        <v>0.01275765497491537</v>
+        <v>0.01666684537167768</v>
       </c>
     </row>
     <row r="254">
@@ -19278,7 +19278,7 @@
         <v>-0.0189</v>
       </c>
       <c r="X254" t="n">
-        <v>0.006376515585437954</v>
+        <v>0.01336505307504457</v>
       </c>
     </row>
     <row r="255">
@@ -19352,7 +19352,7 @@
         <v>-0.0185</v>
       </c>
       <c r="X255" t="n">
-        <v>0.009232453701597192</v>
+        <v>0.01213545057529759</v>
       </c>
     </row>
     <row r="256">
@@ -19426,7 +19426,7 @@
         <v>0.0018</v>
       </c>
       <c r="X256" t="n">
-        <v>0.010367965600401</v>
+        <v>0.01632448343014699</v>
       </c>
     </row>
     <row r="257">
@@ -19500,7 +19500,7 @@
         <v>-0.0119</v>
       </c>
       <c r="X257" t="n">
-        <v>0.002569767806011498</v>
+        <v>0.005675311488103399</v>
       </c>
     </row>
     <row r="258">
@@ -19574,7 +19574,7 @@
         <v>-0.0255</v>
       </c>
       <c r="X258" t="n">
-        <v>-0.003255680449083079</v>
+        <v>0.002744057496125287</v>
       </c>
     </row>
     <row r="259">
@@ -19648,7 +19648,7 @@
         <v>0.0115</v>
       </c>
       <c r="X259" t="n">
-        <v>0.004031223917492405</v>
+        <v>0.006266343521905063</v>
       </c>
     </row>
     <row r="260">
@@ -19722,7 +19722,7 @@
         <v>0.0163</v>
       </c>
       <c r="X260" t="n">
-        <v>0.008009749532618224</v>
+        <v>0.01138767938740181</v>
       </c>
     </row>
     <row r="261">
@@ -19796,7 +19796,7 @@
         <v>-0.03</v>
       </c>
       <c r="X261" t="n">
-        <v>-0.0009500318504594824</v>
+        <v>0.003940521665063092</v>
       </c>
     </row>
     <row r="262">
@@ -19870,7 +19870,7 @@
         <v>-0.0013</v>
       </c>
       <c r="X262" t="n">
-        <v>0.006373850750381739</v>
+        <v>0.008428025090336628</v>
       </c>
     </row>
     <row r="263">
@@ -19944,7 +19944,7 @@
         <v>0.0141</v>
       </c>
       <c r="X263" t="n">
-        <v>0.0073370610763303</v>
+        <v>0.008651378697613872</v>
       </c>
     </row>
     <row r="264">
@@ -20018,7 +20018,7 @@
         <v>-0.001</v>
       </c>
       <c r="X264" t="n">
-        <v>0.008467256497004395</v>
+        <v>0.01337714991627524</v>
       </c>
     </row>
     <row r="265">
@@ -20092,7 +20092,7 @@
         <v>-0.0048</v>
       </c>
       <c r="X265" t="n">
-        <v>0.01449974301620415</v>
+        <v>0.01496828685220009</v>
       </c>
     </row>
     <row r="266">
@@ -20166,7 +20166,7 @@
         <v>-0.0278</v>
       </c>
       <c r="X266" t="n">
-        <v>0.005743275311931299</v>
+        <v>0.009058207169368709</v>
       </c>
     </row>
     <row r="267">
@@ -20240,7 +20240,7 @@
         <v>0.0067</v>
       </c>
       <c r="X267" t="n">
-        <v>0.005207746576016002</v>
+        <v>0.007478107880599791</v>
       </c>
     </row>
     <row r="268">
@@ -20314,7 +20314,7 @@
         <v>-0.0373</v>
       </c>
       <c r="X268" t="n">
-        <v>-0.00597454205912337</v>
+        <v>-0.002483090500430941</v>
       </c>
     </row>
     <row r="269">
@@ -20388,7 +20388,7 @@
         <v>0.0452</v>
       </c>
       <c r="X269" t="n">
-        <v>0.008632281238412427</v>
+        <v>0.01195606671045887</v>
       </c>
     </row>
     <row r="270">
@@ -20462,7 +20462,7 @@
         <v>-0.0366</v>
       </c>
       <c r="X270" t="n">
-        <v>-0.005407054029669162</v>
+        <v>0.001665670515644915</v>
       </c>
     </row>
     <row r="271">
@@ -20536,7 +20536,7 @@
         <v>0.002</v>
       </c>
       <c r="X271" t="n">
-        <v>0.006467971340902331</v>
+        <v>0.009413165393252668</v>
       </c>
     </row>
     <row r="272">
@@ -20610,7 +20610,7 @@
         <v>0.009599999999999999</v>
       </c>
       <c r="X272" t="n">
-        <v>0.01447813377250667</v>
+        <v>0.01690640625321441</v>
       </c>
     </row>
     <row r="273">
@@ -20684,7 +20684,7 @@
         <v>-0.0557</v>
       </c>
       <c r="X273" t="n">
-        <v>0.007745611563180051</v>
+        <v>0.01311651462521826</v>
       </c>
     </row>
     <row r="274">
@@ -20758,7 +20758,7 @@
         <v>0.0033</v>
       </c>
       <c r="X274" t="n">
-        <v>0.009797300332390345</v>
+        <v>0.01458144822894039</v>
       </c>
     </row>
     <row r="275">
@@ -20832,7 +20832,7 @@
         <v>-0.0332</v>
       </c>
       <c r="X275" t="n">
-        <v>-0.007936140709247754</v>
+        <v>-0.001051626879496511</v>
       </c>
     </row>
     <row r="276">
@@ -20906,7 +20906,7 @@
         <v>-0.0518</v>
       </c>
       <c r="X276" t="n">
-        <v>-0.006546455395911278</v>
+        <v>-0.001443632980903685</v>
       </c>
     </row>
     <row r="277">
@@ -20980,7 +20980,7 @@
         <v>-0.0269</v>
       </c>
       <c r="X277" t="n">
-        <v>-0.0188435501260994</v>
+        <v>-0.0142941263133882</v>
       </c>
     </row>
     <row r="278">
@@ -21054,7 +21054,7 @@
         <v>0.0319</v>
       </c>
       <c r="X278" t="n">
-        <v>0.004139099001613284</v>
+        <v>0.006850667068470742</v>
       </c>
     </row>
     <row r="279">
@@ -21128,7 +21128,7 @@
         <v>-0.0107</v>
       </c>
       <c r="X279" t="n">
-        <v>-0.006420602758309804</v>
+        <v>-0.003090424995566029</v>
       </c>
     </row>
     <row r="280">
@@ -21202,7 +21202,7 @@
         <v>-0.0564</v>
       </c>
       <c r="X280" t="n">
-        <v>0.004663192260762114</v>
+        <v>0.01187561272767695</v>
       </c>
     </row>
     <row r="281">
@@ -21276,7 +21276,7 @@
         <v>-0.0246</v>
       </c>
       <c r="X281" t="n">
-        <v>-0.009641443637081876</v>
+        <v>-0.003942844107767017</v>
       </c>
     </row>
     <row r="282">
@@ -21350,7 +21350,7 @@
         <v>0.0017</v>
       </c>
       <c r="X282" t="n">
-        <v>0.001681178220134207</v>
+        <v>0.00413885016465387</v>
       </c>
     </row>
     <row r="283">
@@ -21424,7 +21424,7 @@
         <v>0.0401</v>
       </c>
       <c r="X283" t="n">
-        <v>0.003436601160196015</v>
+        <v>0.007244995662180956</v>
       </c>
     </row>
     <row r="284">
@@ -21498,7 +21498,7 @@
         <v>-0.0192</v>
       </c>
       <c r="X284" t="n">
-        <v>0.007761133417714406</v>
+        <v>0.009768447037076701</v>
       </c>
     </row>
     <row r="285">
@@ -21572,7 +21572,7 @@
         <v>0.0011</v>
       </c>
       <c r="X285" t="n">
-        <v>0.01341595176897099</v>
+        <v>0.01517188078790828</v>
       </c>
     </row>
     <row r="286">
@@ -21646,7 +21646,7 @@
         <v>0.0232</v>
       </c>
       <c r="X286" t="n">
-        <v>0.01766504545632938</v>
+        <v>0.01788839529370823</v>
       </c>
     </row>
     <row r="287">
@@ -21720,7 +21720,7 @@
         <v>0.0408</v>
       </c>
       <c r="X287" t="n">
-        <v>0.01531449232841154</v>
+        <v>0.01640983867252154</v>
       </c>
     </row>
     <row r="288">
@@ -21794,7 +21794,7 @@
         <v>-0.0053</v>
       </c>
       <c r="X288" t="n">
-        <v>0.01805598798218588</v>
+        <v>0.0186993215379705</v>
       </c>
     </row>
     <row r="289">
@@ -21868,7 +21868,7 @@
         <v>-0.0009</v>
       </c>
       <c r="X289" t="n">
-        <v>0.01634769381273304</v>
+        <v>0.0186975010779137</v>
       </c>
     </row>
     <row r="290">
@@ -21942,7 +21942,7 @@
         <v>0.0168</v>
       </c>
       <c r="X290" t="n">
-        <v>0.01885976031378752</v>
+        <v>0.0215401264789111</v>
       </c>
     </row>
     <row r="291">
@@ -22016,7 +22016,7 @@
         <v>-0.0386</v>
       </c>
       <c r="X291" t="n">
-        <v>0.001025584212644081</v>
+        <v>0.008259433487021659</v>
       </c>
     </row>
     <row r="292">
@@ -22090,7 +22090,7 @@
         <v>0.0052</v>
       </c>
       <c r="X292" t="n">
-        <v>0.006442121286789774</v>
+        <v>0.009516007099024965</v>
       </c>
     </row>
     <row r="293">
@@ -22164,7 +22164,7 @@
         <v>0.0176</v>
       </c>
       <c r="X293" t="n">
-        <v>0.01043259338707511</v>
+        <v>0.01179871817704783</v>
       </c>
     </row>
     <row r="294">
@@ -22238,7 +22238,7 @@
         <v>-0.005</v>
       </c>
       <c r="X294" t="n">
-        <v>0.008230477125858315</v>
+        <v>0.008275327847530862</v>
       </c>
     </row>
     <row r="295">
@@ -22312,7 +22312,7 @@
         <v>-0.036</v>
       </c>
       <c r="X295" t="n">
-        <v>0.006941931323415146</v>
+        <v>0.006621684786781843</v>
       </c>
     </row>
     <row r="296">
@@ -22386,7 +22386,7 @@
         <v>-0.0386</v>
       </c>
       <c r="X296" t="n">
-        <v>0.00400842718588601</v>
+        <v>0.00445295319835823</v>
       </c>
     </row>
     <row r="297">
@@ -22460,7 +22460,7 @@
         <v>-0.0383</v>
       </c>
       <c r="X297" t="n">
-        <v>-0.008236368105505609</v>
+        <v>-0.005282713996461056</v>
       </c>
     </row>
     <row r="298">
@@ -22534,7 +22534,7 @@
         <v>0.0067</v>
       </c>
       <c r="X298" t="n">
-        <v>-0.0152551543813213</v>
+        <v>-0.01367351266519429</v>
       </c>
     </row>
     <row r="299">
@@ -22608,7 +22608,7 @@
         <v>-0.0397</v>
       </c>
       <c r="X299" t="n">
-        <v>-0.01078173977631846</v>
+        <v>-0.006095860113248463</v>
       </c>
     </row>
     <row r="300">
@@ -22682,7 +22682,7 @@
         <v>0.0115</v>
       </c>
       <c r="X300" t="n">
-        <v>0.006969327648483636</v>
+        <v>0.00807595809714875</v>
       </c>
     </row>
     <row r="301">
@@ -22756,7 +22756,7 @@
         <v>0.0328</v>
       </c>
       <c r="X301" t="n">
-        <v>0.007253265374809598</v>
+        <v>0.008458352943588487</v>
       </c>
     </row>
     <row r="302">
@@ -22830,7 +22830,7 @@
         <v>-0.0038</v>
       </c>
       <c r="X302" t="n">
-        <v>0.00330651129261728</v>
+        <v>0.005218950356859322</v>
       </c>
     </row>
     <row r="303">
@@ -22904,7 +22904,7 @@
         <v>0.0216</v>
       </c>
       <c r="X303" t="n">
-        <v>0.01640448908769801</v>
+        <v>0.01511782367643661</v>
       </c>
     </row>
     <row r="304">
@@ -22978,7 +22978,7 @@
         <v>0.0245</v>
       </c>
       <c r="X304" t="n">
-        <v>0.01637069542474331</v>
+        <v>0.01836353044050587</v>
       </c>
     </row>
     <row r="305">
@@ -23052,7 +23052,7 @@
         <v>0</v>
       </c>
       <c r="X305" t="n">
-        <v>0.01686607505499869</v>
+        <v>0.01711974666404932</v>
       </c>
     </row>
     <row r="306">
@@ -23126,7 +23126,7 @@
         <v>-0.0298</v>
       </c>
       <c r="X306" t="n">
-        <v>0.01214963663508526</v>
+        <v>0.01080710796563252</v>
       </c>
     </row>
     <row r="307">
@@ -23200,7 +23200,7 @@
         <v>0.013</v>
       </c>
       <c r="X307" t="n">
-        <v>0.0118488903007007</v>
+        <v>0.01350594556531145</v>
       </c>
     </row>
     <row r="308">
@@ -23274,7 +23274,7 @@
         <v>-0.018</v>
       </c>
       <c r="X308" t="n">
-        <v>0.006336225875828184</v>
+        <v>0.007073579507975666</v>
       </c>
     </row>
     <row r="309">
@@ -23348,7 +23348,7 @@
         <v>0.0162</v>
       </c>
       <c r="X309" t="n">
-        <v>0.00516106557697671</v>
+        <v>0.007008934613246211</v>
       </c>
     </row>
     <row r="310">
@@ -23422,7 +23422,7 @@
         <v>0.0189</v>
       </c>
       <c r="X310" t="n">
-        <v>0.01249664565661928</v>
+        <v>0.01347481631488131</v>
       </c>
     </row>
     <row r="311">
@@ -23496,7 +23496,7 @@
         <v>0.009599999999999999</v>
       </c>
       <c r="X311" t="n">
-        <v>0.01407501584631521</v>
+        <v>0.01343717879392358</v>
       </c>
     </row>
     <row r="312">
@@ -23570,7 +23570,7 @@
         <v>0.024</v>
       </c>
       <c r="X312" t="n">
-        <v>0.01584951007841181</v>
+        <v>0.01614018430156953</v>
       </c>
     </row>
     <row r="313">
@@ -23644,7 +23644,7 @@
         <v>0.0047</v>
       </c>
       <c r="X313" t="n">
-        <v>0.01509005269247559</v>
+        <v>0.01455473879910845</v>
       </c>
     </row>
     <row r="314">
@@ -23718,7 +23718,7 @@
         <v>-0.0148</v>
       </c>
       <c r="X314" t="n">
-        <v>0.01224096193919292</v>
+        <v>0.01272685360150031</v>
       </c>
     </row>
     <row r="315">
@@ -23792,7 +23792,7 @@
         <v>0.0068</v>
       </c>
       <c r="X315" t="n">
-        <v>0.01027552429064866</v>
+        <v>0.01100237407226146</v>
       </c>
     </row>
     <row r="316">
@@ -23866,7 +23866,7 @@
         <v>-0.0025</v>
       </c>
       <c r="X316" t="n">
-        <v>0.00496518837639951</v>
+        <v>0.00871396829341739</v>
       </c>
     </row>
     <row r="317">
@@ -23940,7 +23940,7 @@
         <v>0.0205</v>
       </c>
       <c r="X317" t="n">
-        <v>0.009051620129613618</v>
+        <v>0.01130631872015237</v>
       </c>
     </row>
     <row r="318">
@@ -24014,7 +24014,7 @@
         <v>0.0115</v>
       </c>
       <c r="X318" t="n">
-        <v>0.01348293032179072</v>
+        <v>0.01437731843727467</v>
       </c>
     </row>
     <row r="319">
@@ -24088,7 +24088,7 @@
         <v>-0.0206</v>
       </c>
       <c r="X319" t="n">
-        <v>0.01068416280776879</v>
+        <v>0.0114343053197361</v>
       </c>
     </row>
     <row r="320">
@@ -24162,7 +24162,7 @@
         <v>0.0267</v>
       </c>
       <c r="X320" t="n">
-        <v>0.01537384596725636</v>
+        <v>0.01541299645782189</v>
       </c>
     </row>
     <row r="321">
@@ -24236,7 +24236,7 @@
         <v>0.0135</v>
       </c>
       <c r="X321" t="n">
-        <v>0.01146711899896321</v>
+        <v>0.01398528088306167</v>
       </c>
     </row>
     <row r="322">
@@ -24310,7 +24310,7 @@
         <v>0.0151</v>
       </c>
       <c r="X322" t="n">
-        <v>0.01191016893513816</v>
+        <v>0.01236242368676713</v>
       </c>
     </row>
     <row r="323">
@@ -24384,7 +24384,7 @@
         <v>-0.0081</v>
       </c>
       <c r="X323" t="n">
-        <v>0.01367312829244751</v>
+        <v>0.01363424476060098</v>
       </c>
     </row>
     <row r="324">
@@ -24458,7 +24458,7 @@
         <v>-0.0074</v>
       </c>
       <c r="X324" t="n">
-        <v>0.01031387566174489</v>
+        <v>0.0103448620597126</v>
       </c>
     </row>
     <row r="325">
@@ -24532,7 +24532,7 @@
         <v>-0.008800000000000001</v>
       </c>
       <c r="X325" t="n">
-        <v>0.006674598425092651</v>
+        <v>0.00846820702530085</v>
       </c>
     </row>
     <row r="326">
@@ -24606,7 +24606,7 @@
         <v>0.0342</v>
       </c>
       <c r="X326" t="n">
-        <v>0.009402535231341958</v>
+        <v>0.01045242786499177</v>
       </c>
     </row>
     <row r="327">
@@ -24680,7 +24680,7 @@
         <v>0.0036</v>
       </c>
       <c r="X327" t="n">
-        <v>0.01381691482201272</v>
+        <v>0.0159965890925951</v>
       </c>
     </row>
     <row r="328">
@@ -24754,7 +24754,7 @@
         <v>0.0328</v>
       </c>
       <c r="X328" t="n">
-        <v>0.01659753230314269</v>
+        <v>0.0186710683399817</v>
       </c>
     </row>
     <row r="329">
@@ -24828,7 +24828,7 @@
         <v>-0.0062</v>
       </c>
       <c r="X329" t="n">
-        <v>0.01540247136685676</v>
+        <v>0.01726574316069761</v>
       </c>
     </row>
     <row r="330">
@@ -24902,7 +24902,7 @@
         <v>-0.009299999999999999</v>
       </c>
       <c r="X330" t="n">
-        <v>0.01543259349611639</v>
+        <v>0.01543193562671114</v>
       </c>
     </row>
     <row r="331">
@@ -24976,7 +24976,7 @@
         <v>0.0382</v>
       </c>
       <c r="X331" t="n">
-        <v>0.01519027731923771</v>
+        <v>0.01683661408209648</v>
       </c>
     </row>
     <row r="332">
@@ -25050,7 +25050,7 @@
         <v>-0.0019</v>
       </c>
       <c r="X332" t="n">
-        <v>0.009794041241997967</v>
+        <v>0.01053537787718289</v>
       </c>
     </row>
     <row r="333">
@@ -25124,7 +25124,7 @@
         <v>-0.0028</v>
       </c>
       <c r="X333" t="n">
-        <v>0.01011795372396045</v>
+        <v>0.01066942801723891</v>
       </c>
     </row>
     <row r="334">
@@ -25198,7 +25198,7 @@
         <v>-0.0029</v>
       </c>
       <c r="X334" t="n">
-        <v>0.01307115594257516</v>
+        <v>0.01302623207396014</v>
       </c>
     </row>
     <row r="335">
@@ -25272,7 +25272,7 @@
         <v>0.0003</v>
       </c>
       <c r="X335" t="n">
-        <v>0.005922599958281682</v>
+        <v>0.007762265497384326</v>
       </c>
     </row>
     <row r="336">
@@ -25346,7 +25346,7 @@
         <v>0.0262</v>
       </c>
       <c r="X336" t="n">
-        <v>0.009573400274632</v>
+        <v>0.0105637250293771</v>
       </c>
     </row>
     <row r="337">
@@ -25420,7 +25420,7 @@
         <v>-0.0044</v>
       </c>
       <c r="X337" t="n">
-        <v>0.00948662614875787</v>
+        <v>0.01163138340126845</v>
       </c>
     </row>
     <row r="338">
@@ -25494,7 +25494,7 @@
         <v>0.0214</v>
       </c>
       <c r="X338" t="n">
-        <v>0.0119396047840115</v>
+        <v>0.01440133638340628</v>
       </c>
     </row>
     <row r="339">
@@ -25568,7 +25568,7 @@
         <v>0.0063</v>
       </c>
       <c r="X339" t="n">
-        <v>0.01251852541754464</v>
+        <v>0.01342728690910607</v>
       </c>
     </row>
     <row r="340">
@@ -25642,7 +25642,7 @@
         <v>-0.0009</v>
       </c>
       <c r="X340" t="n">
-        <v>0.01114031212805635</v>
+        <v>0.01373078960259637</v>
       </c>
     </row>
     <row r="341">
@@ -25716,7 +25716,7 @@
         <v>0.008800000000000001</v>
       </c>
       <c r="X341" t="n">
-        <v>0.01206158905945828</v>
+        <v>0.01335450571426247</v>
       </c>
     </row>
     <row r="342">
@@ -25790,7 +25790,7 @@
         <v>-0.0023</v>
       </c>
       <c r="X342" t="n">
-        <v>0.01144699658469448</v>
+        <v>0.0151313577566783</v>
       </c>
     </row>
     <row r="343">
@@ -25864,7 +25864,7 @@
         <v>-0.0151</v>
       </c>
       <c r="X343" t="n">
-        <v>0.006566984399956769</v>
+        <v>0.01312977043080543</v>
       </c>
     </row>
     <row r="344">
@@ -25938,7 +25938,7 @@
         <v>-0.023</v>
       </c>
       <c r="X344" t="n">
-        <v>0.0006394634805983496</v>
+        <v>0.00640852226944237</v>
       </c>
     </row>
     <row r="345">
@@ -26012,7 +26012,7 @@
         <v>-0.002</v>
       </c>
       <c r="X345" t="n">
-        <v>-0.004014714850221159</v>
+        <v>0.0002518301760739263</v>
       </c>
     </row>
     <row r="346">
@@ -26086,7 +26086,7 @@
         <v>0.0018</v>
       </c>
       <c r="X346" t="n">
-        <v>-0.001367143734082395</v>
+        <v>0.002607032884054351</v>
       </c>
     </row>
     <row r="347">
@@ -26160,7 +26160,7 @@
         <v>0.0149</v>
       </c>
       <c r="X347" t="n">
-        <v>0.007150952306396734</v>
+        <v>0.008359060036613708</v>
       </c>
     </row>
     <row r="348">
@@ -26234,7 +26234,7 @@
         <v>-0.0377</v>
       </c>
       <c r="X348" t="n">
-        <v>0.003858865015174882</v>
+        <v>0.008990631440336835</v>
       </c>
     </row>
     <row r="349">
@@ -26308,7 +26308,7 @@
         <v>-0.0137</v>
       </c>
       <c r="X349" t="n">
-        <v>0.002327646482890176</v>
+        <v>0.004556921652775331</v>
       </c>
     </row>
     <row r="350">
@@ -26382,7 +26382,7 @@
         <v>-0.0153</v>
       </c>
       <c r="X350" t="n">
-        <v>0.0005920461544174781</v>
+        <v>0.003215963429136223</v>
       </c>
     </row>
     <row r="351">
@@ -26456,7 +26456,7 @@
         <v>-0.0106</v>
       </c>
       <c r="X351" t="n">
-        <v>-0.006707043715434894</v>
+        <v>-0.003365940046799606</v>
       </c>
     </row>
     <row r="352">
@@ -26530,7 +26530,7 @@
         <v>0.0047</v>
       </c>
       <c r="X352" t="n">
-        <v>0.00138363196109446</v>
+        <v>0.004912467103076661</v>
       </c>
     </row>
     <row r="353">
@@ -26604,7 +26604,7 @@
         <v>-0.0136</v>
       </c>
       <c r="X353" t="n">
-        <v>0.0001157468822843821</v>
+        <v>0.002706593790115114</v>
       </c>
     </row>
     <row r="354">
@@ -26678,7 +26678,7 @@
         <v>-0.008200000000000001</v>
       </c>
       <c r="X354" t="n">
-        <v>0.006900626793782782</v>
+        <v>0.008644459071796345</v>
       </c>
     </row>
     <row r="355">
@@ -26752,7 +26752,7 @@
         <v>0.009299999999999999</v>
       </c>
       <c r="X355" t="n">
-        <v>0.008375028968160692</v>
+        <v>0.01016866220389517</v>
       </c>
     </row>
     <row r="356">
@@ -26826,7 +26826,7 @@
         <v>-0.009599999999999999</v>
       </c>
       <c r="X356" t="n">
-        <v>0.002807908892239879</v>
+        <v>0.005648685965735741</v>
       </c>
     </row>
     <row r="357">
@@ -26900,7 +26900,7 @@
         <v>0.0188</v>
       </c>
       <c r="X357" t="n">
-        <v>0.01140656926397598</v>
+        <v>0.01343914093262468</v>
       </c>
     </row>
     <row r="358">
@@ -26974,7 +26974,7 @@
         <v>-0.0587</v>
       </c>
       <c r="X358" t="n">
-        <v>0.007743510428203918</v>
+        <v>0.01054886468033255</v>
       </c>
     </row>
     <row r="359">
@@ -27048,7 +27048,7 @@
         <v>0.009599999999999999</v>
       </c>
       <c r="X359" t="n">
-        <v>0.01041041992108032</v>
+        <v>0.01385662222688517</v>
       </c>
     </row>
     <row r="360">
@@ -27122,7 +27122,7 @@
         <v>-0.0189</v>
       </c>
       <c r="X360" t="n">
-        <v>-0.0009959600002122063</v>
+        <v>-0.001199071519815754</v>
       </c>
     </row>
     <row r="361">
@@ -27196,7 +27196,7 @@
         <v>-0.011</v>
       </c>
       <c r="X361" t="n">
-        <v>-0.01081884074218266</v>
+        <v>-0.01029106052071853</v>
       </c>
     </row>
     <row r="362">
@@ -27270,7 +27270,7 @@
         <v>0.0251</v>
       </c>
       <c r="X362" t="n">
-        <v>0.0060040282131967</v>
+        <v>0.009637245382963247</v>
       </c>
     </row>
     <row r="363">
@@ -27344,7 +27344,7 @@
         <v>0.0157</v>
       </c>
       <c r="X363" t="n">
-        <v>0.009965490372850775</v>
+        <v>0.01383356652425447</v>
       </c>
     </row>
     <row r="364">
@@ -27418,7 +27418,7 @@
         <v>-0.0203</v>
       </c>
       <c r="X364" t="n">
-        <v>0.009376434561178785</v>
+        <v>0.01249052108269053</v>
       </c>
     </row>
     <row r="365">
@@ -27492,7 +27492,7 @@
         <v>-0.0064</v>
       </c>
       <c r="X365" t="n">
-        <v>0.007709238893774294</v>
+        <v>0.01138829598616682</v>
       </c>
     </row>
     <row r="366">
@@ -27566,7 +27566,7 @@
         <v>-0.0151</v>
       </c>
       <c r="X366" t="n">
-        <v>-0.004060446638084138</v>
+        <v>0.003504893219978767</v>
       </c>
     </row>
     <row r="367">
@@ -27640,7 +27640,7 @@
         <v>0.0023</v>
       </c>
       <c r="X367" t="n">
-        <v>-0.0009987647505272513</v>
+        <v>0.005997769075936942</v>
       </c>
     </row>
     <row r="368">
@@ -27714,7 +27714,7 @@
         <v>0.0066</v>
       </c>
       <c r="X368" t="n">
-        <v>0.003734466146761735</v>
+        <v>0.008216445714139228</v>
       </c>
     </row>
     <row r="369">
@@ -27788,7 +27788,7 @@
         <v>-0.0491</v>
       </c>
       <c r="X369" t="n">
-        <v>0.003777147789465438</v>
+        <v>0.004580430762460792</v>
       </c>
     </row>
     <row r="370">
@@ -27862,7 +27862,7 @@
         <v>-0.03</v>
       </c>
       <c r="X370" t="n">
-        <v>-0.01966365634545194</v>
+        <v>-0.01609367969627982</v>
       </c>
     </row>
     <row r="371">
@@ -27936,7 +27936,7 @@
         <v>0.0308</v>
       </c>
       <c r="X371" t="n">
-        <v>-0.01166398004038445</v>
+        <v>-0.01027554633499671</v>
       </c>
     </row>
     <row r="372">
@@ -28010,7 +28010,7 @@
         <v>0.0256</v>
       </c>
       <c r="X372" t="n">
-        <v>-0.001090424714174715</v>
+        <v>0.00458892344530899</v>
       </c>
     </row>
     <row r="373">
@@ -28084,7 +28084,7 @@
         <v>0.0021</v>
       </c>
       <c r="X373" t="n">
-        <v>0.008693617718299441</v>
+        <v>0.01008773992262253</v>
       </c>
     </row>
     <row r="374">
@@ -28158,7 +28158,7 @@
         <v>-0.0066</v>
       </c>
       <c r="X374" t="n">
-        <v>0.01534603632150996</v>
+        <v>0.01803478937390225</v>
       </c>
     </row>
     <row r="375">
@@ -28232,7 +28232,7 @@
         <v>-0.0367</v>
       </c>
       <c r="X375" t="n">
-        <v>0.006527264517170506</v>
+        <v>0.008711711207546751</v>
       </c>
     </row>
     <row r="376">
@@ -28306,7 +28306,7 @@
         <v>0.0024</v>
       </c>
       <c r="X376" t="n">
-        <v>0.001613643029601117</v>
+        <v>0.002800189326686386</v>
       </c>
     </row>
     <row r="377">
@@ -28380,7 +28380,7 @@
         <v>-0.0103</v>
       </c>
       <c r="X377" t="n">
-        <v>-0.003968445973470972</v>
+        <v>-0.002541032153467447</v>
       </c>
     </row>
     <row r="378">
@@ -28454,7 +28454,7 @@
         <v>-0.0046</v>
       </c>
       <c r="X378" t="n">
-        <v>0.004565028274246762</v>
+        <v>0.007711539397935206</v>
       </c>
     </row>
     <row r="379">
@@ -28528,7 +28528,7 @@
         <v>0.0336</v>
       </c>
       <c r="X379" t="n">
-        <v>0.01763030589082952</v>
+        <v>0.01912731863864335</v>
       </c>
     </row>
     <row r="380">
@@ -28602,7 +28602,7 @@
         <v>-0.0322</v>
       </c>
       <c r="X380" t="n">
-        <v>0.004413283613352101</v>
+        <v>0.008747201728660036</v>
       </c>
     </row>
     <row r="381">
@@ -28676,7 +28676,7 @@
         <v>0.0291</v>
       </c>
       <c r="X381" t="n">
-        <v>0.01060589488402587</v>
+        <v>0.01350925183320286</v>
       </c>
     </row>
     <row r="382">
@@ -28750,7 +28750,7 @@
         <v>0.0094</v>
       </c>
       <c r="X382" t="n">
-        <v>0.01122423276558875</v>
+        <v>0.01380994120784311</v>
       </c>
     </row>
     <row r="383">
@@ -28824,7 +28824,7 @@
         <v>0.0008</v>
       </c>
       <c r="X383" t="n">
-        <v>0.009740518109574835</v>
+        <v>0.01124553958355241</v>
       </c>
     </row>
     <row r="384">
@@ -28898,7 +28898,7 @@
         <v>-0.0033</v>
       </c>
       <c r="X384" t="n">
-        <v>0.01442953765083938</v>
+        <v>0.01643703025136754</v>
       </c>
     </row>
     <row r="385">
@@ -28972,7 +28972,7 @@
         <v>0.0271</v>
       </c>
       <c r="X385" t="n">
-        <v>0.01267388639961812</v>
+        <v>0.01426858579832614</v>
       </c>
     </row>
     <row r="386">
@@ -29046,7 +29046,7 @@
         <v>0.0148</v>
       </c>
       <c r="X386" t="n">
-        <v>0.01687435732144655</v>
+        <v>0.01677737448432755</v>
       </c>
     </row>
     <row r="387">
@@ -29120,7 +29120,7 @@
         <v>0.0193</v>
       </c>
       <c r="X387" t="n">
-        <v>0.01667297687082992</v>
+        <v>0.01644022737564848</v>
       </c>
     </row>
     <row r="388">
@@ -29194,7 +29194,7 @@
         <v>-0.0196</v>
       </c>
       <c r="X388" t="n">
-        <v>0.01557618166228029</v>
+        <v>0.01904230899134621</v>
       </c>
     </row>
     <row r="389">
@@ -29268,7 +29268,7 @@
         <v>0.0756</v>
       </c>
       <c r="X389" t="n">
-        <v>0.01288787851942642</v>
+        <v>0.01653775900487237</v>
       </c>
     </row>
     <row r="390">
@@ -29342,7 +29342,7 @@
         <v>-0.0154</v>
       </c>
       <c r="X390" t="n">
-        <v>0.012513872598958</v>
+        <v>0.01582183758305678</v>
       </c>
     </row>
     <row r="391">
@@ -29416,7 +29416,7 @@
         <v>-0.0175</v>
       </c>
       <c r="X391" t="n">
-        <v>0.01145069308665191</v>
+        <v>0.01659728289864805</v>
       </c>
     </row>
     <row r="392">
@@ -29490,7 +29490,7 @@
         <v>-0.0424</v>
       </c>
       <c r="X392" t="n">
-        <v>-0.01238716945831946</v>
+        <v>-0.007512091512404863</v>
       </c>
     </row>
     <row r="393">
@@ -29564,7 +29564,7 @@
         <v>-0.0036</v>
       </c>
       <c r="X393" t="n">
-        <v>-0.007033707591020091</v>
+        <v>-0.004931531416263475</v>
       </c>
     </row>
     <row r="394">
@@ -29638,7 +29638,7 @@
         <v>0.0039</v>
       </c>
       <c r="X394" t="n">
-        <v>-0.00757290206043956</v>
+        <v>-0.002945789738774298</v>
       </c>
     </row>
     <row r="395">
@@ -29712,7 +29712,7 @@
         <v>0.0042</v>
       </c>
       <c r="X395" t="n">
-        <v>0.006662471144704969</v>
+        <v>0.006393096467209258</v>
       </c>
     </row>
     <row r="396">
@@ -29786,7 +29786,7 @@
         <v>0.089</v>
       </c>
       <c r="X396" t="n">
-        <v>0.01448417977927767</v>
+        <v>0.01444957383713118</v>
       </c>
     </row>
     <row r="397">
@@ -29860,7 +29860,7 @@
         <v>0.0193</v>
       </c>
       <c r="X397" t="n">
-        <v>0.0157559415064394</v>
+        <v>0.01630306898022339</v>
       </c>
     </row>
     <row r="398">
@@ -29934,7 +29934,7 @@
         <v>-0.0095</v>
       </c>
       <c r="X398" t="n">
-        <v>0.01711596241608531</v>
+        <v>0.01829050994437619</v>
       </c>
     </row>
     <row r="399">
@@ -30008,7 +30008,7 @@
         <v>0.0119</v>
       </c>
       <c r="X399" t="n">
-        <v>0.02057750086342229</v>
+        <v>0.0189479995239143</v>
       </c>
     </row>
     <row r="400">
@@ -30082,7 +30082,7 @@
         <v>-0.0083</v>
       </c>
       <c r="X400" t="n">
-        <v>0.01041257054006917</v>
+        <v>0.01346417100397966</v>
       </c>
     </row>
     <row r="401">
@@ -30156,7 +30156,7 @@
         <v>0.013</v>
       </c>
       <c r="X401" t="n">
-        <v>0.009232092769228905</v>
+        <v>0.01258400458953026</v>
       </c>
     </row>
     <row r="402">
@@ -30230,7 +30230,7 @@
         <v>0.0038</v>
       </c>
       <c r="X402" t="n">
-        <v>0.01289767257120797</v>
+        <v>0.01238096692285513</v>
       </c>
     </row>
     <row r="403">
@@ -30304,7 +30304,7 @@
         <v>-0.0217</v>
       </c>
       <c r="X403" t="n">
-        <v>0.005890264876533364</v>
+        <v>0.008205796605821361</v>
       </c>
     </row>
     <row r="404">
@@ -30378,7 +30378,7 @@
         <v>0.0147</v>
       </c>
       <c r="X404" t="n">
-        <v>0.009082183474601964</v>
+        <v>0.01137838206400022</v>
       </c>
     </row>
     <row r="405">
@@ -30452,7 +30452,7 @@
         <v>0.0059</v>
       </c>
       <c r="X405" t="n">
-        <v>0.01275038856632396</v>
+        <v>0.01327361238311856</v>
       </c>
     </row>
     <row r="406">
@@ -30526,7 +30526,7 @@
         <v>-0.0196</v>
       </c>
       <c r="X406" t="n">
-        <v>0.006126697973595031</v>
+        <v>0.008003869035705432</v>
       </c>
     </row>
     <row r="407">
@@ -30600,7 +30600,7 @@
         <v>-0.0263</v>
       </c>
       <c r="X407" t="n">
-        <v>0.002181723614865527</v>
+        <v>0.005393548850773407</v>
       </c>
     </row>
     <row r="408">
@@ -30674,7 +30674,7 @@
         <v>0.0486</v>
       </c>
       <c r="X408" t="n">
-        <v>0.01024519744119093</v>
+        <v>0.01061719861238637</v>
       </c>
     </row>
     <row r="409">
@@ -30748,7 +30748,7 @@
         <v>0.0019</v>
       </c>
       <c r="X409" t="n">
-        <v>0.008293244910551636</v>
+        <v>0.009746903333890351</v>
       </c>
     </row>
     <row r="410">
@@ -30822,7 +30822,7 @@
         <v>-0.0034</v>
       </c>
       <c r="X410" t="n">
-        <v>0.00922600203537126</v>
+        <v>0.01125550927729335</v>
       </c>
     </row>
     <row r="411">
@@ -30896,7 +30896,7 @@
         <v>-0.008</v>
       </c>
       <c r="X411" t="n">
-        <v>0.01152043854967395</v>
+        <v>0.01269362297845717</v>
       </c>
     </row>
     <row r="412">
@@ -30970,7 +30970,7 @@
         <v>-0.0254</v>
       </c>
       <c r="X412" t="n">
-        <v>0.002895816261924351</v>
+        <v>0.005625382750207308</v>
       </c>
     </row>
     <row r="413">
@@ -31044,7 +31044,7 @@
         <v>-0.0138</v>
       </c>
       <c r="X413" t="n">
-        <v>-0.002640370193695194</v>
+        <v>0.002186945628788419</v>
       </c>
     </row>
     <row r="414">
@@ -31118,7 +31118,7 @@
         <v>0.0121</v>
       </c>
       <c r="X414" t="n">
-        <v>-0.001675189557664558</v>
+        <v>0.003089521338664647</v>
       </c>
     </row>
     <row r="415">
@@ -31192,7 +31192,7 @@
         <v>-0.0034</v>
       </c>
       <c r="X415" t="n">
-        <v>0.006648298984092472</v>
+        <v>0.008628254710403828</v>
       </c>
     </row>
     <row r="416">
@@ -31266,7 +31266,7 @@
         <v>0.0164</v>
       </c>
       <c r="X416" t="n">
-        <v>0.008758536346729833</v>
+        <v>0.01103962546631458</v>
       </c>
     </row>
     <row r="417">
@@ -31340,7 +31340,7 @@
         <v>0.0068</v>
       </c>
       <c r="X417" t="n">
-        <v>0.01185846475263765</v>
+        <v>0.01271715845760651</v>
       </c>
     </row>
     <row r="418">
@@ -31414,7 +31414,7 @@
         <v>-0.0469</v>
       </c>
       <c r="X418" t="n">
-        <v>-0.0008984889137822964</v>
+        <v>-0.0002530867973160315</v>
       </c>
     </row>
     <row r="419">
@@ -31488,7 +31488,7 @@
         <v>-0.0146</v>
       </c>
       <c r="X419" t="n">
-        <v>0.001143392636938225</v>
+        <v>0.002404271388121683</v>
       </c>
     </row>
     <row r="420">
@@ -31562,7 +31562,7 @@
         <v>-0.0159</v>
       </c>
       <c r="X420" t="n">
-        <v>-0.006396411118048618</v>
+        <v>-0.005699277375859436</v>
       </c>
     </row>
     <row r="421">
@@ -31636,7 +31636,7 @@
         <v>-0.0005</v>
       </c>
       <c r="X421" t="n">
-        <v>-0.01127355497239689</v>
+        <v>-0.01237288399819135</v>
       </c>
     </row>
     <row r="422">
@@ -31710,7 +31710,7 @@
         <v>0.0238</v>
       </c>
       <c r="X422" t="n">
-        <v>0.003717038994747084</v>
+        <v>0.00886561474542129</v>
       </c>
     </row>
     <row r="423">
@@ -31784,7 +31784,7 @@
         <v>-0.0238</v>
       </c>
       <c r="X423" t="n">
-        <v>0.008824847928367151</v>
+        <v>0.00672961064584869</v>
       </c>
     </row>
     <row r="424">
@@ -31858,7 +31858,7 @@
         <v>-0.0028</v>
       </c>
       <c r="X424" t="n">
-        <v>0.0101348287039641</v>
+        <v>0.009633526657124995</v>
       </c>
     </row>
     <row r="425">
@@ -31932,7 +31932,7 @@
         <v>-0.0139</v>
       </c>
       <c r="X425" t="n">
-        <v>0.005371872439243764</v>
+        <v>0.006405919289321788</v>
       </c>
     </row>
     <row r="426">
@@ -32006,7 +32006,7 @@
         <v>-0.0307</v>
       </c>
       <c r="X426" t="n">
-        <v>-0.01148464324523516</v>
+        <v>-0.01075217773276561</v>
       </c>
     </row>
     <row r="427">
@@ -32080,7 +32080,7 @@
         <v>0.0283</v>
       </c>
       <c r="X427" t="n">
-        <v>0.008378767647373634</v>
+        <v>0.00582290606431911</v>
       </c>
     </row>
     <row r="428">
@@ -32154,7 +32154,7 @@
         <v>0.0025</v>
       </c>
       <c r="X428" t="n">
-        <v>0.00612711965869098</v>
+        <v>0.005306709817507052</v>
       </c>
     </row>
     <row r="429">
@@ -32228,7 +32228,7 @@
         <v>-0.0374</v>
       </c>
       <c r="X429" t="n">
-        <v>-0.00306444116161616</v>
+        <v>0.001444667192763659</v>
       </c>
     </row>
     <row r="430">
@@ -32302,7 +32302,7 @@
         <v>0.0103</v>
       </c>
       <c r="X430" t="n">
-        <v>0.009074724043591796</v>
+        <v>0.007778594524633304</v>
       </c>
     </row>
     <row r="431">
@@ -32376,7 +32376,7 @@
         <v>-0.0106</v>
       </c>
       <c r="X431" t="n">
-        <v>0.003668576328643347</v>
+        <v>0.002316009288168255</v>
       </c>
     </row>
     <row r="432">
@@ -32450,7 +32450,7 @@
         <v>0.0368</v>
       </c>
       <c r="X432" t="n">
-        <v>0.01067620741006193</v>
+        <v>0.009766529192794521</v>
       </c>
     </row>
     <row r="433">
@@ -32524,7 +32524,7 @@
         <v>0.0041</v>
       </c>
       <c r="X433" t="n">
-        <v>0.01412356886388588</v>
+        <v>0.01246597270953067</v>
       </c>
     </row>
     <row r="434">
@@ -32598,7 +32598,7 @@
         <v>0.0045</v>
       </c>
       <c r="X434" t="n">
-        <v>0.01644197076019218</v>
+        <v>0.01476236054784217</v>
       </c>
     </row>
     <row r="435">
@@ -32672,7 +32672,7 @@
         <v>0.0211</v>
       </c>
       <c r="X435" t="n">
-        <v>0.018106340243753</v>
+        <v>0.01745810432843808</v>
       </c>
     </row>
     <row r="436">
@@ -32746,7 +32746,7 @@
         <v>-0.0005999999999999999</v>
       </c>
       <c r="X436" t="n">
-        <v>0.01372958402927604</v>
+        <v>0.01226145750086633</v>
       </c>
     </row>
     <row r="437">
@@ -32820,7 +32820,7 @@
         <v>0.0101</v>
       </c>
       <c r="X437" t="n">
-        <v>0.01446063655452856</v>
+        <v>0.013316016326602</v>
       </c>
     </row>
     <row r="438">
@@ -32894,7 +32894,7 @@
         <v>0.008800000000000001</v>
       </c>
       <c r="X438" t="n">
-        <v>0.01535093669735959</v>
+        <v>0.01354542591234093</v>
       </c>
     </row>
     <row r="439">
@@ -32968,7 +32968,7 @@
         <v>-0.0054</v>
       </c>
       <c r="X439" t="n">
-        <v>0.01143915954656921</v>
+        <v>0.009585518669560443</v>
       </c>
     </row>
     <row r="440">
@@ -33042,7 +33042,7 @@
         <v>0.0004</v>
       </c>
       <c r="X440" t="n">
-        <v>0.01227705578227795</v>
+        <v>0.01156932987290434</v>
       </c>
     </row>
     <row r="441">
@@ -33116,7 +33116,7 @@
         <v>0.0192</v>
       </c>
       <c r="X441" t="n">
-        <v>0.01250340048381824</v>
+        <v>0.01261362539959986</v>
       </c>
     </row>
     <row r="442">
@@ -33190,7 +33190,7 @@
         <v>0.0235</v>
       </c>
       <c r="X442" t="n">
-        <v>0.0147557310030539</v>
+        <v>0.01443126460801358</v>
       </c>
     </row>
     <row r="443">
@@ -33264,7 +33264,7 @@
         <v>0.0101</v>
       </c>
       <c r="X443" t="n">
-        <v>0.0159298062028541</v>
+        <v>0.01495116329472978</v>
       </c>
     </row>
     <row r="444">
@@ -33338,7 +33338,7 @@
         <v>-0.0047</v>
       </c>
       <c r="X444" t="n">
-        <v>0.01669614729087254</v>
+        <v>0.01613194512525306</v>
       </c>
     </row>
     <row r="445">
@@ -33412,7 +33412,7 @@
         <v>0.0148</v>
       </c>
       <c r="X445" t="n">
-        <v>0.01721163334319742</v>
+        <v>0.01677273334354063</v>
       </c>
     </row>
     <row r="446">
@@ -33486,7 +33486,7 @@
         <v>0.0137</v>
       </c>
       <c r="X446" t="n">
-        <v>0.01408033423144316</v>
+        <v>0.0139980426152209</v>
       </c>
     </row>
     <row r="447">
@@ -33560,7 +33560,7 @@
         <v>-0.0201</v>
       </c>
       <c r="X447" t="n">
-        <v>0.01006086319014785</v>
+        <v>0.01050924662480822</v>
       </c>
     </row>
     <row r="448">
@@ -33634,7 +33634,7 @@
         <v>0.008999999999999999</v>
       </c>
       <c r="X448" t="n">
-        <v>0.01096062499917216</v>
+        <v>0.01177165363153988</v>
       </c>
     </row>
     <row r="449">
@@ -33708,7 +33708,7 @@
         <v>0.007900000000000001</v>
       </c>
       <c r="X449" t="n">
-        <v>0.01251913531124571</v>
+        <v>0.01293314218412683</v>
       </c>
     </row>
     <row r="450">
@@ -33782,7 +33782,7 @@
         <v>0.0371</v>
       </c>
       <c r="X450" t="n">
-        <v>0.01753479426560834</v>
+        <v>0.01807043108292975</v>
       </c>
     </row>
     <row r="451">
@@ -33856,7 +33856,7 @@
         <v>0.0244</v>
       </c>
       <c r="X451" t="n">
-        <v>0.01874964933074444</v>
+        <v>0.01856252164135392</v>
       </c>
     </row>
     <row r="452">
@@ -33930,7 +33930,7 @@
         <v>-0.0179</v>
       </c>
       <c r="X452" t="n">
-        <v>0.01678016158995066</v>
+        <v>0.01740108900869207</v>
       </c>
     </row>
     <row r="453">
@@ -34004,7 +34004,7 @@
         <v>0.0192</v>
       </c>
       <c r="X453" t="n">
-        <v>0.01676617046742939</v>
+        <v>0.01621513132131104</v>
       </c>
     </row>
     <row r="454">
@@ -34078,7 +34078,7 @@
         <v>-0.0177</v>
       </c>
       <c r="X454" t="n">
-        <v>0.01091952899974676</v>
+        <v>0.01075409776991743</v>
       </c>
     </row>
     <row r="455">
@@ -34152,7 +34152,7 @@
         <v>-0.0069</v>
       </c>
       <c r="X455" t="n">
-        <v>0.0006363491088589771</v>
+        <v>0.006308392906072122</v>
       </c>
     </row>
     <row r="456">
@@ -34226,7 +34226,7 @@
         <v>0.0009</v>
       </c>
       <c r="X456" t="n">
-        <v>0.006529679342459595</v>
+        <v>0.008030570711995545</v>
       </c>
     </row>
     <row r="457">
@@ -34300,7 +34300,7 @@
         <v>0.0188</v>
       </c>
       <c r="X457" t="n">
-        <v>0.009862725820981078</v>
+        <v>0.0106940743031941</v>
       </c>
     </row>
     <row r="458">
@@ -34374,7 +34374,7 @@
         <v>-0.0042</v>
       </c>
       <c r="X458" t="n">
-        <v>0.009477313570731324</v>
+        <v>0.0108065766750955</v>
       </c>
     </row>
     <row r="459">
@@ -34448,7 +34448,7 @@
         <v>0.0139</v>
       </c>
       <c r="X459" t="n">
-        <v>0.01220469543135436</v>
+        <v>0.0142734397471911</v>
       </c>
     </row>
     <row r="460">
@@ -34522,7 +34522,7 @@
         <v>-0.0104</v>
       </c>
       <c r="X460" t="n">
-        <v>0.009778985326753083</v>
+        <v>0.009777542880444159</v>
       </c>
     </row>
     <row r="461">
@@ -34596,7 +34596,7 @@
         <v>-0.0075</v>
       </c>
       <c r="X461" t="n">
-        <v>0.008817664483925089</v>
+        <v>0.01121124668194881</v>
       </c>
     </row>
     <row r="462">
@@ -34670,7 +34670,7 @@
         <v>-0.0267</v>
       </c>
       <c r="X462" t="n">
-        <v>-0.00174069699781213</v>
+        <v>0.001437203664594652</v>
       </c>
     </row>
     <row r="463">
@@ -34744,7 +34744,7 @@
         <v>0.0029</v>
       </c>
       <c r="X463" t="n">
-        <v>-0.003147879276073085</v>
+        <v>-0.0003853052299905978</v>
       </c>
     </row>
     <row r="464">
@@ -34818,7 +34818,7 @@
         <v>0.0033</v>
       </c>
       <c r="X464" t="n">
-        <v>0.002870342435548625</v>
+        <v>0.006082010158093541</v>
       </c>
     </row>
     <row r="465">
@@ -34892,7 +34892,7 @@
         <v>-0.018</v>
       </c>
       <c r="X465" t="n">
-        <v>-0.0007161079715606025</v>
+        <v>0.003602573230059699</v>
       </c>
     </row>
     <row r="466">
@@ -34966,7 +34966,7 @@
         <v>0.008200000000000001</v>
       </c>
       <c r="X466" t="n">
-        <v>0.00734582761502037</v>
+        <v>0.005330172436876292</v>
       </c>
     </row>
     <row r="467">
@@ -35040,7 +35040,7 @@
         <v>-0.0034</v>
       </c>
       <c r="X467" t="n">
-        <v>0.00538201228077478</v>
+        <v>0.006477774976615963</v>
       </c>
     </row>
     <row r="468">
@@ -35114,7 +35114,7 @@
         <v>-0.0142</v>
       </c>
       <c r="X468" t="n">
-        <v>0.0002808530271628956</v>
+        <v>0.001246748974839962</v>
       </c>
     </row>
     <row r="469">
@@ -35188,7 +35188,7 @@
         <v>0.0041</v>
       </c>
       <c r="X469" t="n">
-        <v>0.009790703486208004</v>
+        <v>0.01161853920381466</v>
       </c>
     </row>
     <row r="470">
@@ -35262,7 +35262,7 @@
         <v>0.0351</v>
       </c>
       <c r="X470" t="n">
-        <v>0.01111877725965677</v>
+        <v>0.01339484133846883</v>
       </c>
     </row>
     <row r="471">
@@ -35336,7 +35336,7 @@
         <v>0.0185</v>
       </c>
       <c r="X471" t="n">
-        <v>0.0148521942783407</v>
+        <v>0.01494513184146603</v>
       </c>
     </row>
     <row r="472">
@@ -35410,7 +35410,7 @@
         <v>-0.0145</v>
       </c>
       <c r="X472" t="n">
-        <v>0.01554360521519796</v>
+        <v>0.01519473375841904</v>
       </c>
     </row>
     <row r="473">
@@ -35484,7 +35484,7 @@
         <v>0.008399999999999999</v>
       </c>
       <c r="X473" t="n">
-        <v>0.01441018475453118</v>
+        <v>0.01452988058579399</v>
       </c>
     </row>
     <row r="474">
@@ -35558,7 +35558,7 @@
         <v>-0.0149</v>
       </c>
       <c r="X474" t="n">
-        <v>0.01341515161822305</v>
+        <v>0.0136995367340686</v>
       </c>
     </row>
     <row r="475">
@@ -35632,7 +35632,7 @@
         <v>-0.0139</v>
       </c>
       <c r="X475" t="n">
-        <v>-0.002517921108058609</v>
+        <v>0.005014347889406199</v>
       </c>
     </row>
     <row r="476">
@@ -35706,7 +35706,7 @@
         <v>0.0133</v>
       </c>
       <c r="X476" t="n">
-        <v>0.007359886507353526</v>
+        <v>0.008852017447625756</v>
       </c>
     </row>
     <row r="477">
@@ -35780,7 +35780,7 @@
         <v>0.0141</v>
       </c>
       <c r="X477" t="n">
-        <v>0.009611459054251073</v>
+        <v>0.01083683519720678</v>
       </c>
     </row>
     <row r="478">
@@ -35854,7 +35854,7 @@
         <v>0.0026</v>
       </c>
       <c r="X478" t="n">
-        <v>0.01092118560686512</v>
+        <v>0.01289828311555139</v>
       </c>
     </row>
     <row r="479">
@@ -35928,7 +35928,7 @@
         <v>0.0187</v>
       </c>
       <c r="X479" t="n">
-        <v>0.01496657460136735</v>
+        <v>0.01642347815582418</v>
       </c>
     </row>
     <row r="480">
@@ -36002,7 +36002,7 @@
         <v>-0.0055</v>
       </c>
       <c r="X480" t="n">
-        <v>0.01209396560758336</v>
+        <v>0.01449365659612784</v>
       </c>
     </row>
     <row r="481">
@@ -36076,7 +36076,7 @@
         <v>0.0155</v>
       </c>
       <c r="X481" t="n">
-        <v>0.01369701322924274</v>
+        <v>0.01472365984981859</v>
       </c>
     </row>
     <row r="482">
@@ -36150,7 +36150,7 @@
         <v>0.0119</v>
       </c>
       <c r="X482" t="n">
-        <v>0.01425964852744128</v>
+        <v>0.01647628302845155</v>
       </c>
     </row>
     <row r="483">
@@ -36224,7 +36224,7 @@
         <v>-0.0091</v>
       </c>
       <c r="X483" t="n">
-        <v>0.009124388333305349</v>
+        <v>0.01220320433849644</v>
       </c>
     </row>
     <row r="484">
@@ -36298,7 +36298,7 @@
         <v>0.007</v>
       </c>
       <c r="X484" t="n">
-        <v>0.01159202674628126</v>
+        <v>0.01289992191656806</v>
       </c>
     </row>
     <row r="485">
@@ -36372,7 +36372,7 @@
         <v>0.0083</v>
       </c>
       <c r="X485" t="n">
-        <v>0.01112445788417932</v>
+        <v>0.01402581273996041</v>
       </c>
     </row>
     <row r="486">
@@ -36446,7 +36446,7 @@
         <v>-0.0123</v>
       </c>
       <c r="X486" t="n">
-        <v>0.009856393741948999</v>
+        <v>0.01171511275448837</v>
       </c>
     </row>
     <row r="487">
@@ -36520,7 +36520,7 @@
         <v>-0.004</v>
       </c>
       <c r="X487" t="n">
-        <v>0.006088862986430004</v>
+        <v>0.007579709403898884</v>
       </c>
     </row>
     <row r="488">
@@ -36594,7 +36594,7 @@
         <v>0.0198</v>
       </c>
       <c r="X488" t="n">
-        <v>0.009250021944138962</v>
+        <v>0.01201996688253136</v>
       </c>
     </row>
     <row r="489">
@@ -36668,7 +36668,7 @@
         <v>0.009900000000000001</v>
       </c>
       <c r="X489" t="n">
-        <v>0.01005827214255166</v>
+        <v>0.01307934848474103</v>
       </c>
     </row>
     <row r="490">
@@ -36742,7 +36742,7 @@
         <v>0.0156</v>
       </c>
       <c r="X490" t="n">
-        <v>0.01290533905113327</v>
+        <v>0.01490569944171104</v>
       </c>
     </row>
     <row r="491">
@@ -36816,7 +36816,7 @@
         <v>0.0077</v>
       </c>
       <c r="X491" t="n">
-        <v>0.0131513858793051</v>
+        <v>0.01577448132969022</v>
       </c>
     </row>
     <row r="492">
@@ -36890,7 +36890,7 @@
         <v>-0.0032</v>
       </c>
       <c r="X492" t="n">
-        <v>0.01117228197291737</v>
+        <v>0.01421009852084619</v>
       </c>
     </row>
     <row r="493">
@@ -36964,7 +36964,7 @@
         <v>-0.0113</v>
       </c>
       <c r="X493" t="n">
-        <v>0.008561830694049182</v>
+        <v>0.01196833481706631</v>
       </c>
     </row>
     <row r="494">
@@ -37038,7 +37038,7 @@
         <v>0.0055</v>
       </c>
       <c r="X494" t="n">
-        <v>0.01188497503124793</v>
+        <v>0.01349108454038221</v>
       </c>
     </row>
     <row r="495">
@@ -37112,7 +37112,7 @@
         <v>-0.016</v>
       </c>
       <c r="X495" t="n">
-        <v>0.005554605236065106</v>
+        <v>0.008297587812069674</v>
       </c>
     </row>
     <row r="496">
@@ -37186,7 +37186,7 @@
         <v>-0.0076</v>
       </c>
       <c r="X496" t="n">
-        <v>0.00227970341150078</v>
+        <v>0.006825431676538539</v>
       </c>
     </row>
     <row r="497">
@@ -37260,7 +37260,7 @@
         <v>-0.0044</v>
       </c>
       <c r="X497" t="n">
-        <v>0.003671397688166176</v>
+        <v>0.007754792362168684</v>
       </c>
     </row>
     <row r="498">
@@ -37334,7 +37334,7 @@
         <v>0.0341</v>
       </c>
       <c r="X498" t="n">
-        <v>0.008800557073388799</v>
+        <v>0.0122379008858015</v>
       </c>
     </row>
     <row r="499">
@@ -37408,7 +37408,7 @@
         <v>-0.0021</v>
       </c>
       <c r="X499" t="n">
-        <v>0.00910727420054269</v>
+        <v>0.01198963421913483</v>
       </c>
     </row>
     <row r="500">
@@ -37482,7 +37482,7 @@
         <v>0.0001</v>
       </c>
       <c r="X500" t="n">
-        <v>0.01099227210957809</v>
+        <v>0.01368398682238593</v>
       </c>
     </row>
     <row r="501">
@@ -37556,7 +37556,7 @@
         <v>0.0075</v>
       </c>
       <c r="X501" t="n">
-        <v>0.01243980983851582</v>
+        <v>0.014910530903305</v>
       </c>
     </row>
     <row r="502">
@@ -37630,7 +37630,7 @@
         <v>0.007</v>
       </c>
       <c r="X502" t="n">
-        <v>0.009203106673788401</v>
+        <v>0.01297782760148777</v>
       </c>
     </row>
     <row r="503">
@@ -37704,7 +37704,7 @@
         <v>-0.0058</v>
       </c>
       <c r="X503" t="n">
-        <v>0.009350630287674515</v>
+        <v>0.01276709414284116</v>
       </c>
     </row>
     <row r="504">
@@ -37778,7 +37778,7 @@
         <v>-0.0098</v>
       </c>
       <c r="X504" t="n">
-        <v>0.008680580946574437</v>
+        <v>0.01245178989140374</v>
       </c>
     </row>
     <row r="505">
@@ -37852,7 +37852,7 @@
         <v>0.0019</v>
       </c>
       <c r="X505" t="n">
-        <v>0.0106240665791608</v>
+        <v>0.01287786640867732</v>
       </c>
     </row>
     <row r="506">
@@ -37926,7 +37926,7 @@
         <v>-0.0094</v>
       </c>
       <c r="X506" t="n">
-        <v>0.003437785869483971</v>
+        <v>0.009075251319395685</v>
       </c>
     </row>
     <row r="507">
@@ -38000,7 +38000,7 @@
         <v>-0.0001</v>
       </c>
       <c r="X507" t="n">
-        <v>0.004106390170683658</v>
+        <v>0.009444586287687611</v>
       </c>
     </row>
     <row r="508">
@@ -38074,7 +38074,7 @@
         <v>0.0284</v>
       </c>
       <c r="X508" t="n">
-        <v>0.009044273782904771</v>
+        <v>0.01273598665172325</v>
       </c>
     </row>
     <row r="509">
@@ -38148,7 +38148,7 @@
         <v>0.0075</v>
       </c>
       <c r="X509" t="n">
-        <v>0.01041781816646239</v>
+        <v>0.01387822741482373</v>
       </c>
     </row>
     <row r="510">
@@ -38222,7 +38222,7 @@
         <v>-0.0005</v>
       </c>
       <c r="X510" t="n">
-        <v>0.01288365620897543</v>
+        <v>0.01481924653743998</v>
       </c>
     </row>
     <row r="511">
@@ -38296,7 +38296,7 @@
         <v>-0.0062</v>
       </c>
       <c r="X511" t="n">
-        <v>0.01041931282458205</v>
+        <v>0.01306701855666263</v>
       </c>
     </row>
     <row r="512">
@@ -38370,7 +38370,7 @@
         <v>-0.0065</v>
       </c>
       <c r="X512" t="n">
-        <v>0.0111238098775291</v>
+        <v>0.01327801393350801</v>
       </c>
     </row>
     <row r="513">
@@ -38444,7 +38444,7 @@
         <v>0.0469</v>
       </c>
       <c r="X513" t="n">
-        <v>0.009786485046804272</v>
+        <v>0.01313905882508014</v>
       </c>
     </row>
     <row r="514">
@@ -38518,7 +38518,7 @@
         <v>-0.0004</v>
       </c>
       <c r="X514" t="n">
-        <v>0.01021817750712173</v>
+        <v>0.01315893593482111</v>
       </c>
     </row>
     <row r="515">
@@ -38592,7 +38592,7 @@
         <v>-0.01</v>
       </c>
       <c r="X515" t="n">
-        <v>0.01156960355313454</v>
+        <v>0.0125743647985764</v>
       </c>
     </row>
     <row r="516">
@@ -38666,7 +38666,7 @@
         <v>0.0104</v>
       </c>
       <c r="X516" t="n">
-        <v>0.01316765196599618</v>
+        <v>0.01497235146372285</v>
       </c>
     </row>
     <row r="517">
@@ -38740,7 +38740,7 @@
         <v>0.0011</v>
       </c>
       <c r="X517" t="n">
-        <v>0.009964778517222744</v>
+        <v>0.01252473037926555</v>
       </c>
     </row>
     <row r="518">
@@ -38814,7 +38814,7 @@
         <v>-0.0068</v>
       </c>
       <c r="X518" t="n">
-        <v>0.009287331276963002</v>
+        <v>0.01220549116357927</v>
       </c>
     </row>
     <row r="519">
@@ -38888,7 +38888,7 @@
         <v>-0.0029</v>
       </c>
       <c r="X519" t="n">
-        <v>0.008718733938027426</v>
+        <v>0.0123190883858015</v>
       </c>
     </row>
     <row r="520">
@@ -38962,7 +38962,7 @@
         <v>0</v>
       </c>
       <c r="X520" t="n">
-        <v>0.007737900352168843</v>
+        <v>0.01131267622427022</v>
       </c>
     </row>
     <row r="521">
@@ -39036,7 +39036,7 @@
         <v>0.0036</v>
       </c>
       <c r="X521" t="n">
-        <v>0.007732839829358316</v>
+        <v>0.01199513823231161</v>
       </c>
     </row>
     <row r="522">
@@ -39110,7 +39110,7 @@
         <v>0.0137</v>
       </c>
       <c r="X522" t="n">
-        <v>0.009175394471937963</v>
+        <v>0.01201893421913483</v>
       </c>
     </row>
     <row r="523">
@@ -39184,7 +39184,7 @@
         <v>0.0005999999999999999</v>
       </c>
       <c r="X523" t="n">
-        <v>0.009540283261089987</v>
+        <v>0.01222134010148777</v>
       </c>
     </row>
     <row r="524">
@@ -39258,7 +39258,7 @@
         <v>-0.0055</v>
       </c>
       <c r="X524" t="n">
-        <v>0.01098227466494757</v>
+        <v>0.01301085021498539</v>
       </c>
     </row>
     <row r="525">
@@ -39332,7 +39332,7 @@
         <v>-0.0152</v>
       </c>
       <c r="X525" t="n">
-        <v>0.008599161715805206</v>
+        <v>0.01083231060802372</v>
       </c>
     </row>
     <row r="526">
@@ -39406,7 +39406,7 @@
         <v>0.0016</v>
       </c>
       <c r="X526" t="n">
-        <v>0.007797555114073603</v>
+        <v>0.01055917300834999</v>
       </c>
     </row>
     <row r="527">
@@ -39480,7 +39480,7 @@
         <v>0.0067</v>
       </c>
       <c r="X527" t="n">
-        <v>0.007395282314650804</v>
+        <v>0.01115160148499031</v>
       </c>
     </row>
     <row r="528">
@@ -39554,7 +39554,7 @@
         <v>0.0141</v>
       </c>
       <c r="X528" t="n">
-        <v>0.008573112256930745</v>
+        <v>0.01196841130507218</v>
       </c>
     </row>
     <row r="529">
@@ -39628,7 +39628,7 @@
         <v>0.0107</v>
       </c>
       <c r="X529" t="n">
-        <v>0.01173897178506601</v>
+        <v>0.01514980869151398</v>
       </c>
     </row>
     <row r="530">
@@ -39702,7 +39702,7 @@
         <v>-0.0003</v>
       </c>
       <c r="X530" t="n">
-        <v>0.01154261877402476</v>
+        <v>0.01406748605196612</v>
       </c>
     </row>
     <row r="531">
@@ -39776,7 +39776,7 @@
         <v>0.016</v>
       </c>
       <c r="X531" t="n">
-        <v>0.01118917217340316</v>
+        <v>0.01568777993554773</v>
       </c>
     </row>
     <row r="532">
@@ -39850,7 +39850,7 @@
         <v>0.0048</v>
       </c>
       <c r="X532" t="n">
-        <v>0.008476556786176009</v>
+        <v>0.01510430678787157</v>
       </c>
     </row>
     <row r="533">
@@ -39924,7 +39924,7 @@
         <v>-0.0076</v>
       </c>
       <c r="X533" t="n">
-        <v>0.00898151842592515</v>
+        <v>0.01344780113723565</v>
       </c>
     </row>
     <row r="534">
@@ -39998,7 +39998,7 @@
         <v>-0.0021</v>
       </c>
       <c r="X534" t="n">
-        <v>0.009506321280015505</v>
+        <v>0.01354184160444818</v>
       </c>
     </row>
     <row r="535">
@@ -40072,7 +40072,7 @@
         <v>-0.0078</v>
       </c>
       <c r="X535" t="n">
-        <v>0.006455152835796324</v>
+        <v>0.01082202171103619</v>
       </c>
     </row>
     <row r="536">
@@ -40146,7 +40146,7 @@
         <v>0.0155</v>
       </c>
       <c r="X536" t="n">
-        <v>0.008567694716138207</v>
+        <v>0.01222726562939124</v>
       </c>
     </row>
     <row r="537">
@@ -40220,7 +40220,7 @@
         <v>0.0022</v>
       </c>
       <c r="X537" t="n">
-        <v>0.00739718519232868</v>
+        <v>0.01104881675379013</v>
       </c>
     </row>
     <row r="538">
@@ -40294,7 +40294,7 @@
         <v>0.0156</v>
       </c>
       <c r="X538" t="n">
-        <v>0.009154748187829914</v>
+        <v>0.01298724032582484</v>
       </c>
     </row>
     <row r="539">
@@ -40368,7 +40368,7 @@
         <v>-0.0026</v>
       </c>
       <c r="X539" t="n">
-        <v>0.0115545517188577</v>
+        <v>0.01497071175789205</v>
       </c>
     </row>
     <row r="540">
@@ -40442,7 +40442,7 @@
         <v>0.0035</v>
       </c>
       <c r="X540" t="n">
-        <v>0.009350324665355653</v>
+        <v>0.01488538077839982</v>
       </c>
     </row>
     <row r="541">
@@ -40516,7 +40516,7 @@
         <v>0.0112</v>
       </c>
       <c r="X541" t="n">
-        <v>0.008218852225458951</v>
+        <v>0.01385907419130577</v>
       </c>
     </row>
     <row r="542">
@@ -40590,7 +40590,7 @@
         <v>-0.0059</v>
       </c>
       <c r="X542" t="n">
-        <v>0.008115989304882795</v>
+        <v>0.0125308883858015</v>
       </c>
     </row>
     <row r="543">
@@ -40664,7 +40664,7 @@
         <v>0.0005</v>
       </c>
       <c r="X543" t="n">
-        <v>0.00822049140572313</v>
+        <v>0.01288299426815444</v>
       </c>
     </row>
     <row r="544">
@@ -40738,7 +40738,7 @@
         <v>-0.0057</v>
       </c>
       <c r="X544" t="n">
-        <v>0.006191286657530144</v>
+        <v>0.009751084391707771</v>
       </c>
     </row>
     <row r="545">
@@ -40812,7 +40812,7 @@
         <v>0.0165</v>
       </c>
       <c r="X545" t="n">
-        <v>0.008393183288840013</v>
+        <v>0.0124696713864309</v>
       </c>
     </row>
     <row r="546">
@@ -40886,7 +40886,7 @@
         <v>-0.0017</v>
       </c>
       <c r="X546" t="n">
-        <v>0.008932728905723131</v>
+        <v>0.0134277990300592</v>
       </c>
     </row>
     <row r="547">
@@ -40960,7 +40960,7 @@
         <v>-0.0076</v>
       </c>
       <c r="X547" t="n">
-        <v>0.007714633568952058</v>
+        <v>0.0122967051237535</v>
       </c>
     </row>
     <row r="548">
@@ -41034,7 +41034,7 @@
         <v>0.0151</v>
       </c>
       <c r="X548" t="n">
-        <v>0.009668161625617613</v>
+        <v>0.01410582900789011</v>
       </c>
     </row>
     <row r="549">
@@ -41108,7 +41108,7 @@
         <v>0.0063</v>
       </c>
       <c r="X549" t="n">
-        <v>0.008068750599144088</v>
+        <v>0.01282120340411652</v>
       </c>
     </row>
     <row r="550">
@@ -41182,7 +41182,7 @@
         <v>0.0018</v>
       </c>
       <c r="X550" t="n">
-        <v>0.009273147070728054</v>
+        <v>0.0129969896934227</v>
       </c>
     </row>
     <row r="551">
@@ -41256,7 +41256,7 @@
         <v>0.0231</v>
       </c>
       <c r="X551" t="n">
-        <v>0.01250561533040955</v>
+        <v>0.01472923001091096</v>
       </c>
     </row>
     <row r="552">
@@ -41330,7 +41330,7 @@
         <v>-0.0078</v>
       </c>
       <c r="X552" t="n">
-        <v>0.008839937040643765</v>
+        <v>0.0132777750251941</v>
       </c>
     </row>
     <row r="553">
@@ -41404,7 +41404,7 @@
         <v>-0.0059</v>
       </c>
       <c r="X553" t="n">
-        <v>0.007581522027715517</v>
+        <v>0.01256382529325679</v>
       </c>
     </row>
     <row r="554">
@@ -41478,7 +41478,7 @@
         <v>0.0025</v>
       </c>
       <c r="X554" t="n">
-        <v>0.008439333471990195</v>
+        <v>0.01293444585852743</v>
       </c>
     </row>
     <row r="555">
@@ -41552,7 +41552,7 @@
         <v>-0.0059</v>
       </c>
       <c r="X555" t="n">
-        <v>0.009544816951827352</v>
+        <v>0.01501522392421175</v>
       </c>
     </row>
     <row r="556">
@@ -41626,7 +41626,7 @@
         <v>-0.0109</v>
       </c>
       <c r="X556" t="n">
-        <v>0.009578795593202318</v>
+        <v>0.01229024136506338</v>
       </c>
     </row>
     <row r="557">
@@ -41700,7 +41700,7 @@
         <v>-0.0028</v>
       </c>
       <c r="X557" t="n">
-        <v>0.008025726878420368</v>
+        <v>0.01301507623597461</v>
       </c>
     </row>
     <row r="558">
@@ -41774,7 +41774,7 @@
         <v>0.008999999999999999</v>
       </c>
       <c r="X558" t="n">
-        <v>0.007524144607913098</v>
+        <v>0.0118123286052226</v>
       </c>
     </row>
     <row r="559">
@@ -41848,7 +41848,7 @@
         <v>0.0041</v>
       </c>
       <c r="X559" t="n">
-        <v>0.008098184001852492</v>
+        <v>0.01205049314770626</v>
       </c>
     </row>
     <row r="560">
@@ -41922,7 +41922,7 @@
         <v>0.0008</v>
       </c>
       <c r="X560" t="n">
-        <v>0.00860069439562538</v>
+        <v>0.01269992339159677</v>
       </c>
     </row>
     <row r="561">
@@ -41996,7 +41996,7 @@
         <v>0.0173</v>
       </c>
       <c r="X561" t="n">
-        <v>0.01045085739112662</v>
+        <v>0.01511714274562296</v>
       </c>
     </row>
     <row r="562">
@@ -42070,7 +42070,7 @@
         <v>-0.0013</v>
       </c>
       <c r="X562" t="n">
-        <v>0.008666624296280283</v>
+        <v>0.01498566582065464</v>
       </c>
     </row>
     <row r="563">
@@ -42144,7 +42144,7 @@
         <v>0.0071</v>
       </c>
       <c r="X563" t="n">
-        <v>0.009771191243385468</v>
+        <v>0.01441582785292193</v>
       </c>
     </row>
     <row r="564">
@@ -42218,7 +42218,7 @@
         <v>-0.0101</v>
       </c>
       <c r="X564" t="n">
-        <v>0.008812708138989864</v>
+        <v>0.0135993070195886</v>
       </c>
     </row>
     <row r="565">
@@ -42292,7 +42292,7 @@
         <v>-0.0062</v>
       </c>
       <c r="X565" t="n">
-        <v>0.007985847421765911</v>
+        <v>0.01199614210035749</v>
       </c>
     </row>
     <row r="566">
@@ -42366,7 +42366,7 @@
         <v>0.0042</v>
       </c>
       <c r="X566" t="n">
-        <v>0.007974186799055288</v>
+        <v>0.01194152424014323</v>
       </c>
     </row>
     <row r="567">
@@ -42440,7 +42440,7 @@
         <v>0.0045</v>
       </c>
       <c r="X567" t="n">
-        <v>0.008321629656198145</v>
+        <v>0.01265826099951389</v>
       </c>
     </row>
     <row r="568">
@@ -42514,7 +42514,7 @@
         <v>0.0045</v>
       </c>
       <c r="X568" t="n">
-        <v>0.00880425850529023</v>
+        <v>0.01365166436085844</v>
       </c>
     </row>
     <row r="569">
@@ -42588,7 +42588,7 @@
         <v>-0.0066</v>
       </c>
       <c r="X569" t="n">
-        <v>0.008240461923930414</v>
+        <v>0.01278277339714678</v>
       </c>
     </row>
     <row r="570">
@@ -42662,7 +42662,7 @@
         <v>0.0135</v>
       </c>
       <c r="X570" t="n">
-        <v>0.008609731151924642</v>
+        <v>0.01273279487813528</v>
       </c>
     </row>
     <row r="571">
@@ -42736,7 +42736,7 @@
         <v>0.0032</v>
       </c>
       <c r="X571" t="n">
-        <v>0.008903419616401342</v>
+        <v>0.01192296755246816</v>
       </c>
     </row>
     <row r="572">
@@ -42810,7 +42810,7 @@
         <v>-0.0043</v>
       </c>
       <c r="X572" t="n">
-        <v>0.01109142251015791</v>
+        <v>0.01454274387317618</v>
       </c>
     </row>
     <row r="573">
@@ -42884,7 +42884,7 @@
         <v>-0.0155</v>
       </c>
       <c r="X573" t="n">
-        <v>0.008749393239999964</v>
+        <v>0.01277855007514415</v>
       </c>
     </row>
     <row r="574">
@@ -42958,7 +42958,7 @@
         <v>-0.048</v>
       </c>
       <c r="X574" t="n">
-        <v>0.0004968233689126492</v>
+        <v>0.003304284864726777</v>
       </c>
     </row>
     <row r="575">
@@ -43032,7 +43032,7 @@
         <v>-0.0173</v>
       </c>
       <c r="X575" t="n">
-        <v>-0.005322891955060764</v>
+        <v>-0.002837736103520661</v>
       </c>
     </row>
     <row r="576">
@@ -43106,7 +43106,7 @@
         <v>0.0053</v>
       </c>
       <c r="X576" t="n">
-        <v>0.0006197194977837777</v>
+        <v>0.002566235291750733</v>
       </c>
     </row>
     <row r="577">
@@ -43180,7 +43180,7 @@
         <v>-0.008999999999999999</v>
       </c>
       <c r="X577" t="n">
-        <v>-0.004345789796108604</v>
+        <v>-0.001579445487274164</v>
       </c>
     </row>
     <row r="578">
@@ -43254,7 +43254,7 @@
         <v>-0.0012</v>
       </c>
       <c r="X578" t="n">
-        <v>0.007764790036096022</v>
+        <v>0.0088847413238765</v>
       </c>
     </row>
     <row r="579">
@@ -43328,7 +43328,7 @@
         <v>-0.001</v>
       </c>
       <c r="X579" t="n">
-        <v>0.006479090818646806</v>
+        <v>0.008889110943372481</v>
       </c>
     </row>
     <row r="580">
@@ -43402,7 +43402,7 @@
         <v>0.0094</v>
       </c>
       <c r="X580" t="n">
-        <v>0.007752307497964223</v>
+        <v>0.008829778974461208</v>
       </c>
     </row>
     <row r="581">
@@ -43476,7 +43476,7 @@
         <v>-0.0112</v>
       </c>
       <c r="X581" t="n">
-        <v>0.0075728492770185</v>
+        <v>0.008817415205550383</v>
       </c>
     </row>
     <row r="582">
@@ -43550,7 +43550,7 @@
         <v>-0.005</v>
       </c>
       <c r="X582" t="n">
-        <v>0.009915104548952449</v>
+        <v>0.01137502086884134</v>
       </c>
     </row>
     <row r="583">
@@ -43624,7 +43624,7 @@
         <v>-0.0146</v>
       </c>
       <c r="X583" t="n">
-        <v>0.008224153343621832</v>
+        <v>0.01190634158559448</v>
       </c>
     </row>
     <row r="584">
@@ -43698,7 +43698,7 @@
         <v>0.0028</v>
       </c>
       <c r="X584" t="n">
-        <v>0.009498917432310921</v>
+        <v>0.01114212023364361</v>
       </c>
     </row>
     <row r="585">
@@ -43772,7 +43772,7 @@
         <v>0.0077</v>
       </c>
       <c r="X585" t="n">
-        <v>0.008511200216193705</v>
+        <v>0.01148173868295316</v>
       </c>
     </row>
     <row r="586">
@@ -43846,7 +43846,7 @@
         <v>0.007900000000000001</v>
       </c>
       <c r="X586" t="n">
-        <v>0.006922233917214904</v>
+        <v>0.01112446566876405</v>
       </c>
     </row>
     <row r="587">
@@ -43920,7 +43920,7 @@
         <v>0.0219</v>
       </c>
       <c r="X587" t="n">
-        <v>0.01239131883605424</v>
+        <v>0.01576905739094496</v>
       </c>
     </row>
     <row r="588">
@@ -43994,7 +43994,7 @@
         <v>-0.0262</v>
       </c>
       <c r="X588" t="n">
-        <v>0.009914763283681771</v>
+        <v>0.01312735593682931</v>
       </c>
     </row>
     <row r="589">
@@ -44068,7 +44068,7 @@
         <v>0.0126</v>
       </c>
       <c r="X589" t="n">
-        <v>0.01000086782913632</v>
+        <v>0.01254921302973641</v>
       </c>
     </row>
     <row r="590">
@@ -44142,7 +44142,7 @@
         <v>0.008800000000000001</v>
       </c>
       <c r="X590" t="n">
-        <v>0.0104076479143289</v>
+        <v>0.01317882011790018</v>
       </c>
     </row>
     <row r="591">
@@ -44216,7 +44216,7 @@
         <v>0.0218</v>
       </c>
       <c r="X591" t="n">
-        <v>0.01030195423023521</v>
+        <v>0.01247261476075733</v>
       </c>
     </row>
     <row r="592">
@@ -44290,7 +44290,7 @@
         <v>0.0192</v>
       </c>
       <c r="X592" t="n">
-        <v>0.0155734913038642</v>
+        <v>0.01815785250197983</v>
       </c>
     </row>
     <row r="593">
@@ -44364,7 +44364,7 @@
         <v>0.0012</v>
       </c>
       <c r="X593" t="n">
-        <v>0.01316114705285377</v>
+        <v>0.01526671890459895</v>
       </c>
     </row>
     <row r="594">
@@ -44438,7 +44438,7 @@
         <v>0.008500000000000001</v>
       </c>
       <c r="X594" t="n">
-        <v>0.01308418186926285</v>
+        <v>0.01497046292489025</v>
       </c>
     </row>
     <row r="595">
@@ -44512,7 +44512,7 @@
         <v>0.0013</v>
       </c>
       <c r="X595" t="n">
-        <v>0.01502933261965626</v>
+        <v>0.01820607727522735</v>
       </c>
     </row>
     <row r="596">
@@ -44586,7 +44586,7 @@
         <v>-0.0358</v>
       </c>
       <c r="X596" t="n">
-        <v>0.002806915283942064</v>
+        <v>0.008299660813870079</v>
       </c>
     </row>
     <row r="597">
@@ -44660,7 +44660,7 @@
         <v>-0.0292</v>
       </c>
       <c r="X597" t="n">
-        <v>6.417733618720452e-05</v>
+        <v>0.007676546303135714</v>
       </c>
     </row>
     <row r="598">
@@ -44734,7 +44734,7 @@
         <v>0.0035</v>
       </c>
       <c r="X598" t="n">
-        <v>-0.0004044300730702049</v>
+        <v>0.007210146303135714</v>
       </c>
     </row>
     <row r="599">
@@ -44808,7 +44808,7 @@
         <v>0.0066</v>
       </c>
       <c r="X599" t="n">
-        <v>0.003071069332671113</v>
+        <v>0.006640261992552508</v>
       </c>
     </row>
     <row r="600">
@@ -44882,7 +44882,7 @@
         <v>-0.0171</v>
       </c>
       <c r="X600" t="n">
-        <v>0.00320930627432423</v>
+        <v>0.007641512280953049</v>
       </c>
     </row>
     <row r="601">
@@ -44956,7 +44956,7 @@
         <v>-0.0119</v>
       </c>
       <c r="X601" t="n">
-        <v>0.005983493135774125</v>
+        <v>0.008818486168147708</v>
       </c>
     </row>
     <row r="602">
@@ -45030,7 +45030,7 @@
         <v>0.008800000000000001</v>
       </c>
       <c r="X602" t="n">
-        <v>0.006208112943907169</v>
+        <v>0.007562976383261561</v>
       </c>
     </row>
     <row r="603">
@@ -45104,7 +45104,7 @@
         <v>-0.0042</v>
       </c>
       <c r="X603" t="n">
-        <v>0.004709206588987576</v>
+        <v>0.00845059331100485</v>
       </c>
     </row>
     <row r="604">
@@ -45178,7 +45178,7 @@
         <v>0.0169</v>
       </c>
       <c r="X604" t="n">
-        <v>0.007288276580107568</v>
+        <v>0.009750458141699199</v>
       </c>
     </row>
     <row r="605">
@@ -45252,7 +45252,7 @@
         <v>0.0062</v>
       </c>
       <c r="X605" t="n">
-        <v>0.01101856528543819</v>
+        <v>0.01502354613202844</v>
       </c>
     </row>
     <row r="606">
@@ -45326,7 +45326,7 @@
         <v>-0.02</v>
       </c>
       <c r="X606" t="n">
-        <v>0.01019906336570759</v>
+        <v>0.0131278691227632</v>
       </c>
     </row>
     <row r="607">
@@ -45400,7 +45400,7 @@
         <v>-0.0089</v>
       </c>
       <c r="X607" t="n">
-        <v>0.008917450371593858</v>
+        <v>0.01296470425348215</v>
       </c>
     </row>
     <row r="608">
@@ -45474,7 +45474,7 @@
         <v>0.0049</v>
       </c>
       <c r="X608" t="n">
-        <v>0.008600426742445232</v>
+        <v>0.01147256666221504</v>
       </c>
     </row>
     <row r="609">
@@ -45548,7 +45548,7 @@
         <v>0.0074</v>
       </c>
       <c r="X609" t="n">
-        <v>0.006460002247795204</v>
+        <v>0.01228893240682391</v>
       </c>
     </row>
     <row r="610">
@@ -45622,7 +45622,7 @@
         <v>-0.0234</v>
       </c>
       <c r="X610" t="n">
-        <v>0.01063493202841743</v>
+        <v>0.01421208602738636</v>
       </c>
     </row>
     <row r="611">
@@ -45696,7 +45696,7 @@
         <v>-0.0089</v>
       </c>
       <c r="X611" t="n">
-        <v>0.008464660669629158</v>
+        <v>0.01235008308168009</v>
       </c>
     </row>
     <row r="612">
@@ -45770,7 +45770,7 @@
         <v>0.0015</v>
       </c>
       <c r="X612" t="n">
-        <v>0.00938356170193019</v>
+        <v>0.01162839031464321</v>
       </c>
     </row>
     <row r="613">
@@ -45844,7 +45844,7 @@
         <v>0.003</v>
       </c>
       <c r="X613" t="n">
-        <v>0.007584448384691873</v>
+        <v>0.01127937909700247</v>
       </c>
     </row>
     <row r="614">
@@ -45918,7 +45918,7 @@
         <v>0.0148</v>
       </c>
       <c r="X614" t="n">
-        <v>0.009211859575053801</v>
+        <v>0.01305116607303515</v>
       </c>
     </row>
     <row r="615">
@@ -45992,7 +45992,7 @@
         <v>-0.0078</v>
       </c>
       <c r="X615" t="n">
-        <v>0.009290515808934297</v>
+        <v>0.01268518269895608</v>
       </c>
     </row>
     <row r="616">
@@ -46066,7 +46066,7 @@
         <v>0.0073</v>
       </c>
       <c r="X616" t="n">
-        <v>0.009245200531156518</v>
+        <v>0.0141629795749559</v>
       </c>
     </row>
     <row r="617">
@@ -46140,7 +46140,7 @@
         <v>0.0072</v>
       </c>
       <c r="X617" t="n">
-        <v>0.01138259297759896</v>
+        <v>0.01378750399235906</v>
       </c>
     </row>
     <row r="618">
@@ -46214,7 +46214,7 @@
         <v>0.0148</v>
       </c>
       <c r="X618" t="n">
-        <v>0.009523350012231001</v>
+        <v>0.01351420978137139</v>
       </c>
     </row>
     <row r="619">
@@ -46288,7 +46288,7 @@
         <v>0.008500000000000001</v>
       </c>
       <c r="X619" t="n">
-        <v>0.01196725014559436</v>
+        <v>0.01434248182780322</v>
       </c>
     </row>
     <row r="620">
@@ -46362,7 +46362,7 @@
         <v>-0.0034</v>
       </c>
       <c r="X620" t="n">
-        <v>0.01157206137586736</v>
+        <v>0.01406214061749862</v>
       </c>
     </row>
     <row r="621">
@@ -46436,7 +46436,7 @@
         <v>0.007900000000000001</v>
       </c>
       <c r="X621" t="n">
-        <v>0.01241847486515585</v>
+        <v>0.01545424813262843</v>
       </c>
     </row>
     <row r="622">
@@ -46510,7 +46510,7 @@
         <v>0.0051</v>
       </c>
       <c r="X622" t="n">
-        <v>0.01047659211196134</v>
+        <v>0.01458997848562257</v>
       </c>
     </row>
     <row r="623">
@@ -46584,7 +46584,7 @@
         <v>-0.0103</v>
       </c>
       <c r="X623" t="n">
-        <v>0.009116778704372193</v>
+        <v>0.01357605230412432</v>
       </c>
     </row>
     <row r="624">
@@ -46658,7 +46658,7 @@
         <v>-0.0007</v>
       </c>
       <c r="X624" t="n">
-        <v>0.01038718655918079</v>
+        <v>0.01446860501187409</v>
       </c>
     </row>
     <row r="625">
@@ -46732,7 +46732,7 @@
         <v>-0.008800000000000001</v>
       </c>
       <c r="X625" t="n">
-        <v>0.01073576709947383</v>
+        <v>0.01382534667854075</v>
       </c>
     </row>
     <row r="626">
@@ -46806,7 +46806,7 @@
         <v>-0.0074</v>
       </c>
       <c r="X626" t="n">
-        <v>0.009866434782607682</v>
+        <v>0.01335068825636652</v>
       </c>
     </row>
     <row r="627">
@@ -46880,7 +46880,7 @@
         <v>-0.0022</v>
       </c>
       <c r="X627" t="n">
-        <v>0.005595320646063602</v>
+        <v>0.01151536890921041</v>
       </c>
     </row>
     <row r="628">
@@ -46954,7 +46954,7 @@
         <v>-0.0147</v>
       </c>
       <c r="X628" t="n">
-        <v>0.0004084997196860578</v>
+        <v>0.006933134848663114</v>
       </c>
     </row>
     <row r="629">
@@ -47028,7 +47028,7 @@
         <v>0.0007</v>
       </c>
       <c r="X629" t="n">
-        <v>0.008693368087211578</v>
+        <v>0.01143733976584561</v>
       </c>
     </row>
     <row r="630">
@@ -47102,7 +47102,7 @@
         <v>0.0025</v>
       </c>
       <c r="X630" t="n">
-        <v>0.01121054684611607</v>
+        <v>0.01520257023847756</v>
       </c>
     </row>
     <row r="631">
@@ -47176,7 +47176,7 @@
         <v>-0.0135</v>
       </c>
       <c r="X631" t="n">
-        <v>0.004425540588621046</v>
+        <v>0.01087313121074187</v>
       </c>
     </row>
     <row r="632">
@@ -47250,7 +47250,7 @@
         <v>-0.0246</v>
       </c>
       <c r="X632" t="n">
-        <v>0.007940256231012219</v>
+        <v>0.01094975599084951</v>
       </c>
     </row>
     <row r="633">
@@ -47324,7 +47324,7 @@
         <v>0.008</v>
       </c>
       <c r="X633" t="n">
-        <v>0.007310042645986132</v>
+        <v>0.01049749990829903</v>
       </c>
     </row>
     <row r="634">
@@ -47398,7 +47398,7 @@
         <v>0.0123</v>
       </c>
       <c r="X634" t="n">
-        <v>0.008279356787400279</v>
+        <v>0.011691132269777</v>
       </c>
     </row>
     <row r="635">
@@ -47472,7 +47472,7 @@
         <v>0.0028</v>
       </c>
       <c r="X635" t="n">
-        <v>0.007047390672959162</v>
+        <v>0.01046442843255255</v>
       </c>
     </row>
     <row r="636">
@@ -47546,7 +47546,7 @@
         <v>0.0187</v>
       </c>
       <c r="X636" t="n">
-        <v>0.01416115509562799</v>
+        <v>0.01772994495642297</v>
       </c>
     </row>
     <row r="637">
@@ -47620,7 +47620,7 @@
         <v>0.0207</v>
       </c>
       <c r="X637" t="n">
-        <v>0.01338273181115103</v>
+        <v>0.01725407681105784</v>
       </c>
     </row>
     <row r="638">
@@ -47694,7 +47694,7 @@
         <v>-0.0052</v>
       </c>
       <c r="X638" t="n">
-        <v>0.01215324524200122</v>
+        <v>0.01461045589046096</v>
       </c>
     </row>
     <row r="639">
@@ -47768,7 +47768,7 @@
         <v>0.0146</v>
       </c>
       <c r="X639" t="n">
-        <v>0.01570907428199717</v>
+        <v>0.01734385145781631</v>
       </c>
     </row>
     <row r="640">
@@ -47842,7 +47842,7 @@
         <v>0.0145</v>
       </c>
       <c r="X640" t="n">
-        <v>0.01255657489568088</v>
+        <v>0.01464560019931174</v>
       </c>
     </row>
     <row r="641">
@@ -47916,7 +47916,7 @@
         <v>0.0059</v>
       </c>
       <c r="X641" t="n">
-        <v>0.01058683749435672</v>
+        <v>0.0144207042411815</v>
       </c>
     </row>
     <row r="642">
@@ -47990,7 +47990,7 @@
         <v>-0.0026</v>
       </c>
       <c r="X642" t="n">
-        <v>0.01093819654347753</v>
+        <v>0.01329161413787874</v>
       </c>
     </row>
     <row r="643">
@@ -48064,7 +48064,7 @@
         <v>0.0219</v>
       </c>
       <c r="X643" t="n">
-        <v>0.01024667746549669</v>
+        <v>0.01417765166262311</v>
       </c>
     </row>
     <row r="644">
@@ -48138,7 +48138,7 @@
         <v>-0.0086</v>
       </c>
       <c r="X644" t="n">
-        <v>0.009366953594759583</v>
+        <v>0.01279411592636803</v>
       </c>
     </row>
     <row r="645">
@@ -48212,7 +48212,7 @@
         <v>0.0143</v>
       </c>
       <c r="X645" t="n">
-        <v>0.009771677187833177</v>
+        <v>0.01422146089752825</v>
       </c>
     </row>
     <row r="646">
@@ -48286,7 +48286,7 @@
         <v>0.003</v>
       </c>
       <c r="X646" t="n">
-        <v>0.01202966155624254</v>
+        <v>0.01460210438925319</v>
       </c>
     </row>
     <row r="647">
@@ -48360,7 +48360,7 @@
         <v>0.008999999999999999</v>
       </c>
       <c r="X647" t="n">
-        <v>0.008356113203206691</v>
+        <v>0.01298545382354788</v>
       </c>
     </row>
     <row r="648">
@@ -48434,7 +48434,7 @@
         <v>-0.0001</v>
       </c>
       <c r="X648" t="n">
-        <v>0.01137287454325552</v>
+        <v>0.01417694156874037</v>
       </c>
     </row>
     <row r="649">
@@ -48508,7 +48508,7 @@
         <v>0.009299999999999999</v>
       </c>
       <c r="X649" t="n">
-        <v>0.009194538994245719</v>
+        <v>0.01288344887808699</v>
       </c>
     </row>
     <row r="650">
@@ -48582,7 +48582,7 @@
         <v>-0.0042</v>
       </c>
       <c r="X650" t="n">
-        <v>0.008566647158140647</v>
+        <v>0.01236441317854402</v>
       </c>
     </row>
     <row r="651">
@@ -48656,7 +48656,7 @@
         <v>0.0035</v>
       </c>
       <c r="X651" t="n">
-        <v>0.008965843972600699</v>
+        <v>0.01347633339291856</v>
       </c>
     </row>
     <row r="652">
@@ -48730,7 +48730,7 @@
         <v>-0.007</v>
       </c>
       <c r="X652" t="n">
-        <v>0.008615962795281283</v>
+        <v>0.01314514630179332</v>
       </c>
     </row>
     <row r="653">
@@ -48804,7 +48804,7 @@
         <v>-0.0009</v>
       </c>
       <c r="X653" t="n">
-        <v>0.008080121761315251</v>
+        <v>0.01278294782766682</v>
       </c>
     </row>
     <row r="654">
@@ -48878,7 +48878,7 @@
         <v>0.0032</v>
       </c>
       <c r="X654" t="n">
-        <v>0.00910288513421686</v>
+        <v>0.01297939352401554</v>
       </c>
     </row>
     <row r="655">
@@ -48952,7 +48952,7 @@
         <v>-0.0054</v>
       </c>
       <c r="X655" t="n">
-        <v>0.008394727713696202</v>
+        <v>0.01299087466640256</v>
       </c>
     </row>
     <row r="656">
@@ -49026,7 +49026,7 @@
         <v>0.0031</v>
       </c>
       <c r="X656" t="n">
-        <v>0.008257444091762579</v>
+        <v>0.01328877006159344</v>
       </c>
     </row>
     <row r="657">
@@ -49100,7 +49100,7 @@
         <v>0.0068</v>
       </c>
       <c r="X657" t="n">
-        <v>0.009666511201205425</v>
+        <v>0.01403125449294857</v>
       </c>
     </row>
   </sheetData>
